--- a/01_基本設計書/01_基本設計書/チーム1/金原/【倉庫】基本設計書 -(金原).xlsx
+++ b/01_基本設計書/01_基本設計書/チーム1/金原/【倉庫】基本設計書 -(金原).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3a3a\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{E6D5026D-0DD0-42E1-AE35-0836E3C25F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6082D337-C7CD-4E5E-97C0-9EB883C843DB}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="8_{E6D5026D-0DD0-42E1-AE35-0836E3C25F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E070887-C097-4DA2-B9A4-F53AF97711EB}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,17 +21,17 @@
     <sheet name="書式文字" sheetId="25" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">書式文字!$A$1:$F$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面レイアウト（ログイン）'!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面レイアウト（在庫情報一覧）'!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'画面レイアウト（在庫情報登録） '!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$41</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'IO関連図'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面レイアウト（ログイン）'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'画面レイアウト（在庫情報一覧）'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'画面レイアウト（在庫情報登録） '!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙'!A1:AF41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'IO関連図'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面レイアウト（ログイン）'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面レイアウト（在庫情報一覧）'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'画面レイアウト（在庫情報登録） '!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'書式文字'!A1:F23</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>基本設計書</t>
   </si>
@@ -107,6 +107,12 @@
     <t>チーム1</t>
   </si>
   <si>
+    <t>ver1.0</t>
+  </si>
+  <si>
+    <t>外部レビュー指摘箇所修正</t>
+  </si>
+  <si>
     <t>IO関連図</t>
   </si>
   <si>
@@ -119,7 +125,7 @@
     <t>社員ID、英数10桁</t>
   </si>
   <si>
-    <t>パスワード、英数20桁</t>
+    <t>パスワード、英数50桁</t>
   </si>
   <si>
     <t>ログイン</t>
@@ -128,57 +134,64 @@
     <t>社員IDとパスワードにより、社員マスタを照合してから、ログインとする。</t>
   </si>
   <si>
+    <t>ログイン成功後、在庫情報一覧に遷移する</t>
+  </si>
+  <si>
     <t>エラー処理：</t>
   </si>
   <si>
+    <t>*社員ID</t>
+  </si>
+  <si>
+    <t>ＢＢＢＢＢＢＢＢＢＢ</t>
+  </si>
+  <si>
     <t>社員IDチェックを実施し、存在しない場合、以下のメッセージを表示</t>
   </si>
   <si>
-    <t>社員ID</t>
-  </si>
-  <si>
-    <t>ＢＢＢＢＢＢＢＢＢＢ</t>
-  </si>
-  <si>
     <t>社員IDが存在しません</t>
   </si>
   <si>
+    <t>*パスワード</t>
+  </si>
+  <si>
     <t>パスワードが一致しない場合、以下のメッセージを表示</t>
   </si>
   <si>
-    <t>パスワード</t>
-  </si>
-  <si>
     <t>パスワードが一致しません。再度入力をしてください</t>
   </si>
   <si>
     <t>社員ID、パスワードが間違っています。再度入力してください。</t>
   </si>
   <si>
+    <t>社員ID、パスワードに必須チェックの実施</t>
+  </si>
+  <si>
+    <t>「社員ID」を入力してください</t>
+  </si>
+  <si>
+    <t>「パスワード」を入力してください</t>
+  </si>
+  <si>
     <t>在庫名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>在庫状況</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ーー</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>▼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>在庫名称、20桁まで入力</t>
   </si>
   <si>
-    <t>更新日時、YYYY/MM/DDで画面表示、YYYYMMDDでDB保存</t>
+    <t>更新日時、YYYY/MM/DDで画面表示</t>
   </si>
   <si>
     <t>更新日時</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>YYYY/MM/DD</t>
@@ -188,25 +201,18 @@
   </si>
   <si>
     <t>検索</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>閉じる</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在庫状況、コンボボックスで在庫あり、在庫なしを選択</t>
-  </si>
-  <si>
-    <t>検索</t>
+  </si>
+  <si>
+    <t>在庫状況、コンボボックスで「在庫あり」、「在庫なし」を選択</t>
   </si>
   <si>
     <t>追加</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>削除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>在庫名称、更新日時、在庫状況の入力有無により、組み合わせた条件で検索を実施する</t>
@@ -216,30 +222,21 @@
   </si>
   <si>
     <t>□</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>在庫ID</t>
   </si>
   <si>
-    <t>在庫名称</t>
-  </si>
-  <si>
     <t>在庫数量</t>
   </si>
   <si>
     <t>更新者</t>
   </si>
   <si>
-    <t>更新日時</t>
-  </si>
-  <si>
     <t>操作</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>６６６（１１桁）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ＯＯ（２０桁まで）</t>
@@ -255,43 +252,26 @@
   </si>
   <si>
     <t>編集</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>入出庫</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>△</t>
   </si>
   <si>
-    <t>追加</t>
-  </si>
-  <si>
     <t>在庫情報登録画面に遷移する</t>
   </si>
   <si>
-    <t>削除</t>
-  </si>
-  <si>
     <t>選択チェックボックスを入れた対象に、削除を実施する</t>
   </si>
   <si>
     <t>又は操作欄の削除ボタンを押下して、対象のレコードを削除する</t>
   </si>
   <si>
-    <t>編集</t>
-  </si>
-  <si>
-    <t>入出庫</t>
-  </si>
-  <si>
     <t>入出庫情報一覧画面に遷移する</t>
   </si>
   <si>
-    <t>閉じる</t>
-  </si>
-  <si>
     <t>画面を閉じ、ログアウトする</t>
   </si>
   <si>
@@ -307,82 +287,45 @@
     <t>在庫ID、英数10桁(表示のみ、入力不可)</t>
   </si>
   <si>
-    <t>在庫ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>ＯＯＯＯＯＯＯＯＯＯ</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>在庫名称、文字20桁まで入力</t>
   </si>
   <si>
-    <t>単位、数字10桁まで入力</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>在庫名称</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>備考、文字50桁まで入力</t>
+  </si>
+  <si>
+    <t>*在庫名称</t>
   </si>
   <si>
     <t>ＢＢ（２０桁まで）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>備考、文字50桁まで入力</t>
   </si>
   <si>
     <t>登録</t>
   </si>
   <si>
-    <t>画面内容をもって、在庫情報マスタTBLへ登録処理を実施する</t>
-  </si>
-  <si>
-    <t>備考</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>画面内容をもって、在庫情報マスタTBLへ登録処理を実施する。登録成功後、在庫情報一覧に遷移する</t>
+  </si>
+  <si>
+    <t>更新</t>
   </si>
   <si>
     <t>ＢＢＢＢＢＢＢＢＢＢ（最大５０桁まで）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>画面内容をもって、在庫情報マスタTBLへ更新処理を実施する</t>
-  </si>
-  <si>
-    <t>登録</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>画面を閉じる</t>
+  </si>
+  <si>
+    <t>画面内容をもって、在庫情報マスタTBLへ更新処理を実施する。更新成功後、在庫情報一覧に遷移する</t>
+  </si>
+  <si>
+    <t>画面を閉じ、在庫情報一覧に遷移する</t>
+  </si>
+  <si>
+    <t>採番処理(在庫情報一覧追加ボタン押下時のみ適用)：</t>
   </si>
   <si>
     <t>在庫名称を入力してください</t>
   </si>
   <si>
-    <t>採番処理：</t>
-  </si>
-  <si>
     <t>在庫IDを在庫情報マスタの在庫IDから最大値を取得し、1をプラスして画面表示とする</t>
   </si>
   <si>
@@ -395,10 +338,10 @@
     <t>在庫名称を対象に、必須チェックを実施する</t>
   </si>
   <si>
-    <t>各項目に対して、文字種別と桁数のチェックを実施し、問題があった場合、警告メッセージを表示する。</t>
-  </si>
-  <si>
-    <t>エラー/警告メッセージ表示処理</t>
+    <t>在庫名称に対して、文字種別と桁数のチェックを実施し、問題があった場合、エラーメッセージを表示する。</t>
+  </si>
+  <si>
+    <t>エラーメッセージ表示処理</t>
   </si>
   <si>
     <t>在庫ID一意制約チェックを実施し、存在しない場合は、以下のメッセージを表示する</t>
@@ -417,9 +360,6 @@
   </si>
   <si>
     <t>「在庫名称」の入力内容を確認し、再度入力を行ってください。</t>
-  </si>
-  <si>
-    <t>「備考」の入力内容を確認し、再度入力を行ってください。</t>
   </si>
   <si>
     <t>画面レイアウトで使用される書式文字の説明</t>
@@ -460,19 +400,8 @@
 入力時は指定された桁数をすべて満たす必要がある。</t>
   </si>
   <si>
-    <r>
-      <t>入力エラー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="254"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>入力エラー
 （6桁すべて要入力）</t>
-    </r>
   </si>
   <si>
     <t>Z</t>
@@ -552,6 +481,15 @@
   </si>
   <si>
     <t>半角/全角の区別は画面レイアウトで使用されている文字に依存する。</t>
+  </si>
+  <si>
+    <t>在庫名称、50桁まで入力</t>
+  </si>
+  <si>
+    <t>在庫名称、文字50桁まで入力</t>
+  </si>
+  <si>
+    <t>ＢＢ（50桁まで）</t>
   </si>
 </sst>
 </file>
@@ -568,7 +506,7 @@
     <numFmt numFmtId="182" formatCode="0_ "/>
     <numFmt numFmtId="183" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -667,13 +605,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
     </font>
@@ -683,6 +614,34 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="254"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1345,7 +1304,7 @@
     <xf numFmtId="181" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1404,7 +1363,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1413,6 +1372,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1491,6 +1453,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1518,12 +1486,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1536,6 +1498,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1623,6 +1591,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1638,7 +1624,7 @@
     <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1647,38 +1633,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -1718,15 +1677,9 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14636" name="computr1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E66DCD98-4F12-51EF-010C-5880EC08FF02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14636" name="computr1"/>
         <xdr:cNvSpPr>
           <a:spLocks noEditPoints="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1738,216 +1691,7 @@
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="T0" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T1" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T2" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T3" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T4" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T5" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T6" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T7" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T8" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T9" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T10" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T11" fmla="*/ 0 h 21600"/>
-            <a:gd name="T12" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T13" fmla="*/ 0 h 21600"/>
-            <a:gd name="T14" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T15" fmla="*/ 0 h 21600"/>
-            <a:gd name="T16" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T17" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T18" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T19" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T20" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T21" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T22" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T23" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T24" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T25" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T26" fmla="*/ 0 w 21600"/>
-            <a:gd name="T27" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T28" fmla="*/ 0 w 21600"/>
-            <a:gd name="T29" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T30" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T31" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T32" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T33" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T34" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T35" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T36" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T37" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T38" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T39" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T40" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T41" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T42" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T43" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T44" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T45" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T46" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T47" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T48" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T49" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T50" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T51" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T52" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T53" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T54" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T55" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T56" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T57" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T58" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T59" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T60" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T61" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T62" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T63" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T64" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T65" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T66" fmla="*/ 2147483646 w 21600"/>
-            <a:gd name="T67" fmla="*/ 2147483646 h 21600"/>
-            <a:gd name="T68" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T69" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T70" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T71" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T72" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T73" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T74" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T75" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T76" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T77" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T78" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T79" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T80" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T81" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T82" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T83" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T84" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T85" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T86" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T87" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T88" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T89" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T90" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T91" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T92" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T93" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T94" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T95" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T96" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T97" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T98" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T99" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T100" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T101" fmla="*/ 0 60000 65536"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="T68">
-              <a:pos x="T0" y="T1"/>
-            </a:cxn>
-            <a:cxn ang="T69">
-              <a:pos x="T2" y="T3"/>
-            </a:cxn>
-            <a:cxn ang="T70">
-              <a:pos x="T4" y="T5"/>
-            </a:cxn>
-            <a:cxn ang="T71">
-              <a:pos x="T6" y="T7"/>
-            </a:cxn>
-            <a:cxn ang="T72">
-              <a:pos x="T8" y="T9"/>
-            </a:cxn>
-            <a:cxn ang="T73">
-              <a:pos x="T10" y="T11"/>
-            </a:cxn>
-            <a:cxn ang="T74">
-              <a:pos x="T12" y="T13"/>
-            </a:cxn>
-            <a:cxn ang="T75">
-              <a:pos x="T14" y="T15"/>
-            </a:cxn>
-            <a:cxn ang="T76">
-              <a:pos x="T16" y="T17"/>
-            </a:cxn>
-            <a:cxn ang="T77">
-              <a:pos x="T18" y="T19"/>
-            </a:cxn>
-            <a:cxn ang="T78">
-              <a:pos x="T20" y="T21"/>
-            </a:cxn>
-            <a:cxn ang="T79">
-              <a:pos x="T22" y="T23"/>
-            </a:cxn>
-            <a:cxn ang="T80">
-              <a:pos x="T24" y="T25"/>
-            </a:cxn>
-            <a:cxn ang="T81">
-              <a:pos x="T26" y="T27"/>
-            </a:cxn>
-            <a:cxn ang="T82">
-              <a:pos x="T28" y="T29"/>
-            </a:cxn>
-            <a:cxn ang="T83">
-              <a:pos x="T30" y="T31"/>
-            </a:cxn>
-            <a:cxn ang="T84">
-              <a:pos x="T32" y="T33"/>
-            </a:cxn>
-            <a:cxn ang="T85">
-              <a:pos x="T34" y="T35"/>
-            </a:cxn>
-            <a:cxn ang="T86">
-              <a:pos x="T36" y="T37"/>
-            </a:cxn>
-            <a:cxn ang="T87">
-              <a:pos x="T38" y="T39"/>
-            </a:cxn>
-            <a:cxn ang="T88">
-              <a:pos x="T40" y="T41"/>
-            </a:cxn>
-            <a:cxn ang="T89">
-              <a:pos x="T42" y="T43"/>
-            </a:cxn>
-            <a:cxn ang="T90">
-              <a:pos x="T44" y="T45"/>
-            </a:cxn>
-            <a:cxn ang="T91">
-              <a:pos x="T46" y="T47"/>
-            </a:cxn>
-            <a:cxn ang="T92">
-              <a:pos x="T48" y="T49"/>
-            </a:cxn>
-            <a:cxn ang="T93">
-              <a:pos x="T50" y="T51"/>
-            </a:cxn>
-            <a:cxn ang="T94">
-              <a:pos x="T52" y="T53"/>
-            </a:cxn>
-            <a:cxn ang="T95">
-              <a:pos x="T54" y="T55"/>
-            </a:cxn>
-            <a:cxn ang="T96">
-              <a:pos x="T56" y="T57"/>
-            </a:cxn>
-            <a:cxn ang="T97">
-              <a:pos x="T58" y="T59"/>
-            </a:cxn>
-            <a:cxn ang="T98">
-              <a:pos x="T60" y="T61"/>
-            </a:cxn>
-            <a:cxn ang="T99">
-              <a:pos x="T62" y="T63"/>
-            </a:cxn>
-            <a:cxn ang="T100">
-              <a:pos x="T64" y="T65"/>
-            </a:cxn>
-            <a:cxn ang="T101">
-              <a:pos x="T66" y="T67"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
               <a:moveTo>
@@ -2068,35 +1812,32 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p/>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>82595</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E45C7E6-1C74-3352-7EF7-957E423E0C51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Line 5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2146,28 +1887,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>74930</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313055</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DE937B-CBFC-AE99-24DF-8EF162C87566}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5E45C7E6-1C74-3352-7EF7-957E423E0C51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="AutoShape 10"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2181,11 +1913,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2198,15 +1930,14 @@
             <a:lnSpc>
               <a:spcPts val="1100"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>社員アカウント</a:t>
           </a:r>
@@ -2214,8 +1945,8 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2223,14 +1954,13 @@
             <a:lnSpc>
               <a:spcPts val="1100"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2240,25 +1970,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>295910</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>5783</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>113030</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2DE39F-B378-EC03-52A4-92420FBE82BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Line 4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2318,18 +2042,9 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED38D50-74FD-6EB1-C4E3-4EEB1E264E98}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AF2DE39F-B378-EC03-52A4-92420FBE82BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Line 4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2379,25 +2094,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>185420</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>351124</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943F8DCF-3949-7779-48C3-21FC40257988}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="AutoShape 13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2411,11 +2120,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
@@ -2428,15 +2137,14 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>ログイン</a:t>
           </a:r>
@@ -2448,25 +2156,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>10081</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E380D33-057F-D036-AB81-C79C686D76ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="AutoShape 13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2480,11 +2182,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
@@ -2497,15 +2199,14 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>在庫情報一覧</a:t>
           </a:r>
@@ -2515,14 +2216,13 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2532,25 +2232,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>226695</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>340995</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9605FD36-FF39-1D87-8282-30F3255DE3C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="AutoShape 13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2564,11 +2258,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
@@ -2581,15 +2275,14 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>在庫情報登録</a:t>
           </a:r>
@@ -2599,14 +2292,13 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2614,14 +2306,13 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2629,14 +2320,13 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2646,25 +2336,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>268618</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348D76C1-1A59-384A-02D0-AAFD6557F465}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="Line 5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2714,25 +2398,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>185867</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC06E04-6D89-2261-94EF-96323BB1202B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="Line 5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2782,25 +2460,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>22216</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC44D15-5184-24E3-A681-F56F636AA6E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="AutoShape 10"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2814,11 +2486,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2826,9 +2498,6 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN"/>
-          </a:defPPr>
           <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
             <a:defRPr sz="1100">
               <a:latin typeface="+mn-lt"/>
@@ -2898,15 +2567,14 @@
             <a:lnSpc>
               <a:spcPts val="1100"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>在庫情報</a:t>
           </a:r>
@@ -2914,8 +2582,8 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2923,14 +2591,13 @@
             <a:lnSpc>
               <a:spcPts val="1100"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2939,26 +2606,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFB9F65-BCF0-F88D-4268-9E223A8AFB53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="Line 5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3013,61 +2674,55 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>183515</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>233622</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>78381</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FE9E86-70DD-FCE9-3D12-9E7292E8C1EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Text Box 3"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981960" y="3573780"/>
-          <a:ext cx="657225" cy="228600"/>
+          <a:off x="3009900" y="3533775"/>
+          <a:ext cx="676275" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
+          <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" rtlCol="0" anchor="t" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>ログイン</a:t>
           </a:r>
@@ -3084,25 +2739,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>240665</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>67945</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1358960</xdr:colOff>
+      <xdr:colOff>1352550</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>211234</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED4857E-04B3-887A-21E7-40B7BE30655B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3116,29 +2765,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>BBBBBBBB</a:t>
           </a:r>
@@ -3150,25 +2799,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>240665</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>57785</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1358960</xdr:colOff>
+      <xdr:colOff>1352550</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>191816</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09F3F08-CD2C-C3EE-2B0D-B4170E3A6382}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Text Box 2"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3182,29 +2825,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>OOOOOOOO</a:t>
           </a:r>
@@ -3216,25 +2859,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>240665</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1369197</xdr:colOff>
+      <xdr:colOff>1362075</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>248285</xdr:rowOff>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C7951E-A56D-5F45-D7C1-9F48E3162F69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Text Box 3"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3248,29 +2885,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>ZZ,ZZZ,ZZ6.6ZZ</a:t>
           </a:r>
@@ -3282,25 +2919,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>240665</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1369197</xdr:colOff>
+      <xdr:colOff>1362075</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B669B7-892B-0BA4-4471-9AA457A089FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Text Box 4"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3314,29 +2945,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>ZZZZZZZZ9.ZZ</a:t>
           </a:r>
@@ -3348,25 +2979,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>240665</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>56515</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1369197</xdr:colOff>
+      <xdr:colOff>1362075</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Text Box 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CB6D58-564B-DB33-A25B-F29366C834FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Text Box 5"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3380,29 +3005,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>999999</a:t>
           </a:r>
@@ -3414,25 +3039,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>240665</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1369197</xdr:colOff>
+      <xdr:colOff>1362075</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Text Box 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B244C7-C790-FE3D-105F-AE66264463A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Text Box 6"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3446,29 +3065,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>666666.66</a:t>
           </a:r>
@@ -3480,25 +3099,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>188595</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1515440</xdr:colOff>
+      <xdr:colOff>1514475</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Text Box 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3B7CA5-5751-56F0-EFD6-6AE272F4CECF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Text Box 7"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3512,29 +3125,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>HH:MM:SS</a:t>
           </a:r>
@@ -3546,25 +3159,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>218440</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1378338</xdr:colOff>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>247015</xdr:rowOff>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Text Box 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BF1C5A-B326-50DC-9093-1192A93691ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Text Box 8"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3578,29 +3185,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>YYYY/MM/DD</a:t>
           </a:r>
@@ -3612,25 +3219,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>156845</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1483176</xdr:colOff>
+      <xdr:colOff>1476375</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>267970</xdr:rowOff>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Text Box 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B629EBA-22C9-F3FF-BC1B-E8A7DDD8D731}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Text Box 9"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3644,29 +3245,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>HH:MM:SS AM/PM</a:t>
           </a:r>
@@ -3938,20 +3539,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26:AE26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="20" customWidth="1"/>
-    <col min="7" max="32" width="4.109375" style="19" customWidth="1"/>
-    <col min="33" max="36" width="4" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="19" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="19" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="19" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="19" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" style="19" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="19" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" style="19" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="19" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="19" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="19" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="19" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="19" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="19" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="19" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="19" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" style="19" customWidth="1"/>
+    <col min="32" max="32" width="4.109375" style="19" customWidth="1"/>
+    <col min="33" max="33" width="4" style="19" customWidth="1"/>
+    <col min="34" max="34" width="4" style="19" customWidth="1"/>
+    <col min="35" max="35" width="4" style="19" customWidth="1"/>
+    <col min="36" max="36" width="4" style="19" customWidth="1"/>
     <col min="37" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" ht="12">
+    <row r="1" ht="12">
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -3985,7 +3618,7 @@
       <c r="AE1" s="47"/>
       <c r="AF1" s="47"/>
     </row>
-    <row r="2" spans="1:176" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" customFormat="1" s="18">
       <c r="A2" s="48"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -4163,7 +3796,7 @@
       <c r="FS2" s="41"/>
       <c r="FT2" s="41"/>
     </row>
-    <row r="3" spans="1:176" ht="12.75" customHeight="1">
+    <row r="3">
       <c r="A3" s="26"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -4196,77 +3829,77 @@
       <c r="AE3" s="37"/>
       <c r="AF3" s="43"/>
     </row>
-    <row r="4" spans="1:176" ht="12.75" customHeight="1">
+    <row r="4">
       <c r="A4" s="26"/>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
       <c r="AF4" s="43"/>
     </row>
-    <row r="5" spans="1:176" ht="12.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="26"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="131"/>
       <c r="AF5" s="43"/>
     </row>
-    <row r="6" spans="1:176" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="26"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -4299,7 +3932,7 @@
       <c r="AE6" s="37"/>
       <c r="AF6" s="43"/>
     </row>
-    <row r="7" spans="1:176" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="26"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -4332,7 +3965,7 @@
       <c r="AE7" s="37"/>
       <c r="AF7" s="43"/>
     </row>
-    <row r="8" spans="1:176" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="26"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -4366,7 +3999,7 @@
       <c r="AE8" s="37"/>
       <c r="AF8" s="43"/>
     </row>
-    <row r="9" spans="1:176" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="26"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -4399,7 +4032,7 @@
       <c r="AE9" s="37"/>
       <c r="AF9" s="43"/>
     </row>
-    <row r="10" spans="1:176" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="26"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -4433,127 +4066,127 @@
       <c r="AE10" s="37"/>
       <c r="AF10" s="43"/>
     </row>
-    <row r="11" spans="1:176" ht="12">
+    <row r="11" ht="12">
       <c r="A11" s="26"/>
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="139" t="s">
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="139" t="s">
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="140"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="140"/>
-      <c r="S11" s="140"/>
-      <c r="T11" s="140"/>
-      <c r="U11" s="140"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="140"/>
-      <c r="Y11" s="140"/>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="141"/>
-      <c r="AB11" s="139" t="s">
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="143"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="143"/>
+      <c r="Y11" s="143"/>
+      <c r="Z11" s="143"/>
+      <c r="AA11" s="144"/>
+      <c r="AB11" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="141"/>
-      <c r="AD11" s="139" t="s">
+      <c r="AC11" s="144"/>
+      <c r="AD11" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="141"/>
+      <c r="AE11" s="144"/>
       <c r="AF11" s="55"/>
     </row>
-    <row r="12" spans="1:176" ht="12">
+    <row r="12" ht="12">
       <c r="A12" s="26"/>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="135" t="s">
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="130"/>
-      <c r="AA12" s="131"/>
-      <c r="AB12" s="135" t="s">
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="AC12" s="136"/>
-      <c r="AD12" s="129" t="s">
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="131"/>
+      <c r="AE12" s="134"/>
       <c r="AF12" s="55"/>
     </row>
-    <row r="13" spans="1:176" ht="12">
+    <row r="13" ht="12">
       <c r="A13" s="26"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="133"/>
-      <c r="V13" s="133"/>
-      <c r="W13" s="133"/>
-      <c r="X13" s="133"/>
-      <c r="Y13" s="133"/>
-      <c r="Z13" s="133"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="132"/>
-      <c r="AE13" s="134"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="141"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="137"/>
       <c r="AF13" s="55"/>
     </row>
-    <row r="14" spans="1:176" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="26"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -4586,7 +4219,7 @@
       <c r="AE14" s="37"/>
       <c r="AF14" s="43"/>
     </row>
-    <row r="15" spans="1:176" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="26"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -4619,7 +4252,7 @@
       <c r="AE15" s="37"/>
       <c r="AF15" s="43"/>
     </row>
-    <row r="16" spans="1:176" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="26"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -4649,7 +4282,7 @@
       <c r="AE16" s="37"/>
       <c r="AF16" s="43"/>
     </row>
-    <row r="17" spans="1:32" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="26"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -4682,7 +4315,7 @@
       <c r="AE17" s="37"/>
       <c r="AF17" s="43"/>
     </row>
-    <row r="18" spans="1:32" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="26"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -4715,7 +4348,7 @@
       <c r="AE18" s="37"/>
       <c r="AF18" s="43"/>
     </row>
-    <row r="19" spans="1:32" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="26"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -4748,7 +4381,7 @@
       <c r="AE19" s="37"/>
       <c r="AF19" s="43"/>
     </row>
-    <row r="20" spans="1:32" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="26"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -4781,7 +4414,7 @@
       <c r="AE20" s="37"/>
       <c r="AF20" s="43"/>
     </row>
-    <row r="21" spans="1:32" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="26"/>
       <c r="B21" s="50" t="s">
         <v>10</v>
@@ -4816,7 +4449,7 @@
       <c r="AE21" s="37"/>
       <c r="AF21" s="43"/>
     </row>
-    <row r="22" spans="1:32" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="26"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -4849,635 +4482,643 @@
       <c r="AE22" s="37"/>
       <c r="AF22" s="43"/>
     </row>
-    <row r="23" spans="1:32" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="26"/>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="142" t="s">
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="142" t="s">
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="143"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="143"/>
-      <c r="W23" s="143"/>
-      <c r="X23" s="143"/>
-      <c r="Y23" s="143"/>
-      <c r="Z23" s="143"/>
-      <c r="AA23" s="143"/>
-      <c r="AB23" s="144"/>
-      <c r="AC23" s="160" t="s">
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="146"/>
+      <c r="O23" s="146"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="146"/>
+      <c r="S23" s="146"/>
+      <c r="T23" s="146"/>
+      <c r="U23" s="146"/>
+      <c r="V23" s="146"/>
+      <c r="W23" s="146"/>
+      <c r="X23" s="146"/>
+      <c r="Y23" s="146"/>
+      <c r="Z23" s="146"/>
+      <c r="AA23" s="146"/>
+      <c r="AB23" s="147"/>
+      <c r="AC23" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="AD23" s="161"/>
-      <c r="AE23" s="162"/>
+      <c r="AD23" s="166"/>
+      <c r="AE23" s="167"/>
       <c r="AF23" s="43"/>
     </row>
-    <row r="24" spans="1:32" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="26"/>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="145">
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="148">
         <v>44839</v>
       </c>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="163" t="s">
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="164"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="164"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="164"/>
-      <c r="S24" s="164"/>
-      <c r="T24" s="164"/>
-      <c r="U24" s="164"/>
-      <c r="V24" s="164"/>
-      <c r="W24" s="164"/>
-      <c r="X24" s="164"/>
-      <c r="Y24" s="164"/>
-      <c r="Z24" s="164"/>
-      <c r="AA24" s="164"/>
-      <c r="AB24" s="164"/>
-      <c r="AC24" s="157" t="s">
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="158"/>
+      <c r="S24" s="158"/>
+      <c r="T24" s="158"/>
+      <c r="U24" s="158"/>
+      <c r="V24" s="158"/>
+      <c r="W24" s="158"/>
+      <c r="X24" s="158"/>
+      <c r="Y24" s="158"/>
+      <c r="Z24" s="158"/>
+      <c r="AA24" s="158"/>
+      <c r="AB24" s="158"/>
+      <c r="AC24" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="AD24" s="158"/>
-      <c r="AE24" s="159"/>
+      <c r="AD24" s="163"/>
+      <c r="AE24" s="164"/>
       <c r="AF24" s="43"/>
     </row>
-    <row r="25" spans="1:32" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="26"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="143"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="143"/>
-      <c r="W25" s="143"/>
-      <c r="X25" s="143"/>
-      <c r="Y25" s="143"/>
-      <c r="Z25" s="143"/>
-      <c r="AA25" s="143"/>
-      <c r="AB25" s="143"/>
-      <c r="AC25" s="154"/>
-      <c r="AD25" s="155"/>
-      <c r="AE25" s="156"/>
+      <c r="B25" s="145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="148">
+        <v>44839</v>
+      </c>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="157" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="158"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="158"/>
+      <c r="S25" s="158"/>
+      <c r="T25" s="158"/>
+      <c r="U25" s="158"/>
+      <c r="V25" s="158"/>
+      <c r="W25" s="158"/>
+      <c r="X25" s="158"/>
+      <c r="Y25" s="158"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="158"/>
+      <c r="AB25" s="158"/>
+      <c r="AC25" s="159" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD25" s="160"/>
+      <c r="AE25" s="161"/>
       <c r="AF25" s="43"/>
     </row>
-    <row r="26" spans="1:32" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="26"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="143"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="143"/>
-      <c r="X26" s="143"/>
-      <c r="Y26" s="143"/>
-      <c r="Z26" s="143"/>
-      <c r="AA26" s="143"/>
-      <c r="AB26" s="143"/>
-      <c r="AC26" s="157"/>
-      <c r="AD26" s="158"/>
-      <c r="AE26" s="159"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="146"/>
+      <c r="S26" s="146"/>
+      <c r="T26" s="146"/>
+      <c r="U26" s="146"/>
+      <c r="V26" s="146"/>
+      <c r="W26" s="146"/>
+      <c r="X26" s="146"/>
+      <c r="Y26" s="146"/>
+      <c r="Z26" s="146"/>
+      <c r="AA26" s="146"/>
+      <c r="AB26" s="146"/>
+      <c r="AC26" s="162"/>
+      <c r="AD26" s="163"/>
+      <c r="AE26" s="164"/>
       <c r="AF26" s="43"/>
     </row>
-    <row r="27" spans="1:32" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="26"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="143"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="143"/>
-      <c r="W27" s="143"/>
-      <c r="X27" s="143"/>
-      <c r="Y27" s="143"/>
-      <c r="Z27" s="143"/>
-      <c r="AA27" s="143"/>
-      <c r="AB27" s="143"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="149"/>
-      <c r="AE27" s="150"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="146"/>
+      <c r="S27" s="146"/>
+      <c r="T27" s="146"/>
+      <c r="U27" s="146"/>
+      <c r="V27" s="146"/>
+      <c r="W27" s="146"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="146"/>
+      <c r="Z27" s="146"/>
+      <c r="AA27" s="146"/>
+      <c r="AB27" s="146"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="152"/>
+      <c r="AE27" s="153"/>
       <c r="AF27" s="43"/>
     </row>
-    <row r="28" spans="1:32" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="26"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="143"/>
-      <c r="O28" s="143"/>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="143"/>
-      <c r="S28" s="143"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="143"/>
-      <c r="W28" s="143"/>
-      <c r="X28" s="143"/>
-      <c r="Y28" s="143"/>
-      <c r="Z28" s="143"/>
-      <c r="AA28" s="143"/>
-      <c r="AB28" s="144"/>
-      <c r="AC28" s="151"/>
-      <c r="AD28" s="152"/>
-      <c r="AE28" s="153"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="146"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="146"/>
+      <c r="U28" s="146"/>
+      <c r="V28" s="146"/>
+      <c r="W28" s="146"/>
+      <c r="X28" s="146"/>
+      <c r="Y28" s="146"/>
+      <c r="Z28" s="146"/>
+      <c r="AA28" s="146"/>
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="156"/>
       <c r="AF28" s="43"/>
     </row>
-    <row r="29" spans="1:32" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="26"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="143"/>
-      <c r="O29" s="143"/>
-      <c r="P29" s="143"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="143"/>
-      <c r="S29" s="143"/>
-      <c r="T29" s="143"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="143"/>
-      <c r="W29" s="143"/>
-      <c r="X29" s="143"/>
-      <c r="Y29" s="143"/>
-      <c r="Z29" s="143"/>
-      <c r="AA29" s="143"/>
-      <c r="AB29" s="144"/>
-      <c r="AC29" s="142"/>
-      <c r="AD29" s="143"/>
-      <c r="AE29" s="144"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="146"/>
+      <c r="S29" s="146"/>
+      <c r="T29" s="146"/>
+      <c r="U29" s="146"/>
+      <c r="V29" s="146"/>
+      <c r="W29" s="146"/>
+      <c r="X29" s="146"/>
+      <c r="Y29" s="146"/>
+      <c r="Z29" s="146"/>
+      <c r="AA29" s="146"/>
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="146"/>
+      <c r="AE29" s="147"/>
       <c r="AF29" s="43"/>
     </row>
-    <row r="30" spans="1:32" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="26"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="143"/>
-      <c r="O30" s="143"/>
-      <c r="P30" s="143"/>
-      <c r="Q30" s="143"/>
-      <c r="R30" s="143"/>
-      <c r="S30" s="143"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="143"/>
-      <c r="W30" s="143"/>
-      <c r="X30" s="143"/>
-      <c r="Y30" s="143"/>
-      <c r="Z30" s="143"/>
-      <c r="AA30" s="143"/>
-      <c r="AB30" s="144"/>
-      <c r="AC30" s="142"/>
-      <c r="AD30" s="143"/>
-      <c r="AE30" s="144"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="146"/>
+      <c r="S30" s="146"/>
+      <c r="T30" s="146"/>
+      <c r="U30" s="146"/>
+      <c r="V30" s="146"/>
+      <c r="W30" s="146"/>
+      <c r="X30" s="146"/>
+      <c r="Y30" s="146"/>
+      <c r="Z30" s="146"/>
+      <c r="AA30" s="146"/>
+      <c r="AB30" s="147"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="146"/>
+      <c r="AE30" s="147"/>
       <c r="AF30" s="43"/>
     </row>
-    <row r="31" spans="1:32" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="26"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
-      <c r="O31" s="143"/>
-      <c r="P31" s="143"/>
-      <c r="Q31" s="143"/>
-      <c r="R31" s="143"/>
-      <c r="S31" s="143"/>
-      <c r="T31" s="143"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="143"/>
-      <c r="W31" s="143"/>
-      <c r="X31" s="143"/>
-      <c r="Y31" s="143"/>
-      <c r="Z31" s="143"/>
-      <c r="AA31" s="143"/>
-      <c r="AB31" s="144"/>
-      <c r="AC31" s="142"/>
-      <c r="AD31" s="143"/>
-      <c r="AE31" s="144"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="146"/>
+      <c r="T31" s="146"/>
+      <c r="U31" s="146"/>
+      <c r="V31" s="146"/>
+      <c r="W31" s="146"/>
+      <c r="X31" s="146"/>
+      <c r="Y31" s="146"/>
+      <c r="Z31" s="146"/>
+      <c r="AA31" s="146"/>
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="146"/>
+      <c r="AE31" s="147"/>
       <c r="AF31" s="43"/>
     </row>
-    <row r="32" spans="1:32" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="26"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="143"/>
-      <c r="M32" s="143"/>
-      <c r="N32" s="143"/>
-      <c r="O32" s="143"/>
-      <c r="P32" s="143"/>
-      <c r="Q32" s="143"/>
-      <c r="R32" s="143"/>
-      <c r="S32" s="143"/>
-      <c r="T32" s="143"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="143"/>
-      <c r="W32" s="143"/>
-      <c r="X32" s="143"/>
-      <c r="Y32" s="143"/>
-      <c r="Z32" s="143"/>
-      <c r="AA32" s="143"/>
-      <c r="AB32" s="144"/>
-      <c r="AC32" s="142"/>
-      <c r="AD32" s="143"/>
-      <c r="AE32" s="144"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="146"/>
+      <c r="T32" s="146"/>
+      <c r="U32" s="146"/>
+      <c r="V32" s="146"/>
+      <c r="W32" s="146"/>
+      <c r="X32" s="146"/>
+      <c r="Y32" s="146"/>
+      <c r="Z32" s="146"/>
+      <c r="AA32" s="146"/>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="146"/>
+      <c r="AE32" s="147"/>
       <c r="AF32" s="43"/>
     </row>
-    <row r="33" spans="1:32" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="26"/>
-      <c r="B33" s="142"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="143"/>
-      <c r="M33" s="143"/>
-      <c r="N33" s="143"/>
-      <c r="O33" s="143"/>
-      <c r="P33" s="143"/>
-      <c r="Q33" s="143"/>
-      <c r="R33" s="143"/>
-      <c r="S33" s="143"/>
-      <c r="T33" s="143"/>
-      <c r="U33" s="143"/>
-      <c r="V33" s="143"/>
-      <c r="W33" s="143"/>
-      <c r="X33" s="143"/>
-      <c r="Y33" s="143"/>
-      <c r="Z33" s="143"/>
-      <c r="AA33" s="143"/>
-      <c r="AB33" s="144"/>
-      <c r="AC33" s="142"/>
-      <c r="AD33" s="143"/>
-      <c r="AE33" s="144"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="146"/>
+      <c r="S33" s="146"/>
+      <c r="T33" s="146"/>
+      <c r="U33" s="146"/>
+      <c r="V33" s="146"/>
+      <c r="W33" s="146"/>
+      <c r="X33" s="146"/>
+      <c r="Y33" s="146"/>
+      <c r="Z33" s="146"/>
+      <c r="AA33" s="146"/>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="146"/>
+      <c r="AE33" s="147"/>
       <c r="AF33" s="43"/>
     </row>
-    <row r="34" spans="1:32" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="26"/>
-      <c r="B34" s="142"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="143"/>
-      <c r="O34" s="143"/>
-      <c r="P34" s="143"/>
-      <c r="Q34" s="143"/>
-      <c r="R34" s="143"/>
-      <c r="S34" s="143"/>
-      <c r="T34" s="143"/>
-      <c r="U34" s="143"/>
-      <c r="V34" s="143"/>
-      <c r="W34" s="143"/>
-      <c r="X34" s="143"/>
-      <c r="Y34" s="143"/>
-      <c r="Z34" s="143"/>
-      <c r="AA34" s="143"/>
-      <c r="AB34" s="144"/>
-      <c r="AC34" s="142"/>
-      <c r="AD34" s="143"/>
-      <c r="AE34" s="144"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="146"/>
+      <c r="O34" s="146"/>
+      <c r="P34" s="146"/>
+      <c r="Q34" s="146"/>
+      <c r="R34" s="146"/>
+      <c r="S34" s="146"/>
+      <c r="T34" s="146"/>
+      <c r="U34" s="146"/>
+      <c r="V34" s="146"/>
+      <c r="W34" s="146"/>
+      <c r="X34" s="146"/>
+      <c r="Y34" s="146"/>
+      <c r="Z34" s="146"/>
+      <c r="AA34" s="146"/>
+      <c r="AB34" s="147"/>
+      <c r="AC34" s="145"/>
+      <c r="AD34" s="146"/>
+      <c r="AE34" s="147"/>
       <c r="AF34" s="43"/>
     </row>
-    <row r="35" spans="1:32" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="26"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="143"/>
-      <c r="O35" s="143"/>
-      <c r="P35" s="143"/>
-      <c r="Q35" s="143"/>
-      <c r="R35" s="143"/>
-      <c r="S35" s="143"/>
-      <c r="T35" s="143"/>
-      <c r="U35" s="143"/>
-      <c r="V35" s="143"/>
-      <c r="W35" s="143"/>
-      <c r="X35" s="143"/>
-      <c r="Y35" s="143"/>
-      <c r="Z35" s="143"/>
-      <c r="AA35" s="143"/>
-      <c r="AB35" s="144"/>
-      <c r="AC35" s="142"/>
-      <c r="AD35" s="143"/>
-      <c r="AE35" s="144"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="146"/>
+      <c r="O35" s="146"/>
+      <c r="P35" s="146"/>
+      <c r="Q35" s="146"/>
+      <c r="R35" s="146"/>
+      <c r="S35" s="146"/>
+      <c r="T35" s="146"/>
+      <c r="U35" s="146"/>
+      <c r="V35" s="146"/>
+      <c r="W35" s="146"/>
+      <c r="X35" s="146"/>
+      <c r="Y35" s="146"/>
+      <c r="Z35" s="146"/>
+      <c r="AA35" s="146"/>
+      <c r="AB35" s="147"/>
+      <c r="AC35" s="145"/>
+      <c r="AD35" s="146"/>
+      <c r="AE35" s="147"/>
       <c r="AF35" s="43"/>
     </row>
-    <row r="36" spans="1:32" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="26"/>
-      <c r="B36" s="142"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="143"/>
-      <c r="M36" s="143"/>
-      <c r="N36" s="143"/>
-      <c r="O36" s="143"/>
-      <c r="P36" s="143"/>
-      <c r="Q36" s="143"/>
-      <c r="R36" s="143"/>
-      <c r="S36" s="143"/>
-      <c r="T36" s="143"/>
-      <c r="U36" s="143"/>
-      <c r="V36" s="143"/>
-      <c r="W36" s="143"/>
-      <c r="X36" s="143"/>
-      <c r="Y36" s="143"/>
-      <c r="Z36" s="143"/>
-      <c r="AA36" s="143"/>
-      <c r="AB36" s="144"/>
-      <c r="AC36" s="142"/>
-      <c r="AD36" s="143"/>
-      <c r="AE36" s="144"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="146"/>
+      <c r="N36" s="146"/>
+      <c r="O36" s="146"/>
+      <c r="P36" s="146"/>
+      <c r="Q36" s="146"/>
+      <c r="R36" s="146"/>
+      <c r="S36" s="146"/>
+      <c r="T36" s="146"/>
+      <c r="U36" s="146"/>
+      <c r="V36" s="146"/>
+      <c r="W36" s="146"/>
+      <c r="X36" s="146"/>
+      <c r="Y36" s="146"/>
+      <c r="Z36" s="146"/>
+      <c r="AA36" s="146"/>
+      <c r="AB36" s="147"/>
+      <c r="AC36" s="145"/>
+      <c r="AD36" s="146"/>
+      <c r="AE36" s="147"/>
       <c r="AF36" s="43"/>
     </row>
-    <row r="37" spans="1:32" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="26"/>
-      <c r="B37" s="142"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="142"/>
-      <c r="K37" s="143"/>
-      <c r="L37" s="143"/>
-      <c r="M37" s="143"/>
-      <c r="N37" s="143"/>
-      <c r="O37" s="143"/>
-      <c r="P37" s="143"/>
-      <c r="Q37" s="143"/>
-      <c r="R37" s="143"/>
-      <c r="S37" s="143"/>
-      <c r="T37" s="143"/>
-      <c r="U37" s="143"/>
-      <c r="V37" s="143"/>
-      <c r="W37" s="143"/>
-      <c r="X37" s="143"/>
-      <c r="Y37" s="143"/>
-      <c r="Z37" s="143"/>
-      <c r="AA37" s="143"/>
-      <c r="AB37" s="144"/>
-      <c r="AC37" s="142"/>
-      <c r="AD37" s="143"/>
-      <c r="AE37" s="144"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="146"/>
+      <c r="L37" s="146"/>
+      <c r="M37" s="146"/>
+      <c r="N37" s="146"/>
+      <c r="O37" s="146"/>
+      <c r="P37" s="146"/>
+      <c r="Q37" s="146"/>
+      <c r="R37" s="146"/>
+      <c r="S37" s="146"/>
+      <c r="T37" s="146"/>
+      <c r="U37" s="146"/>
+      <c r="V37" s="146"/>
+      <c r="W37" s="146"/>
+      <c r="X37" s="146"/>
+      <c r="Y37" s="146"/>
+      <c r="Z37" s="146"/>
+      <c r="AA37" s="146"/>
+      <c r="AB37" s="147"/>
+      <c r="AC37" s="145"/>
+      <c r="AD37" s="146"/>
+      <c r="AE37" s="147"/>
       <c r="AF37" s="43"/>
     </row>
-    <row r="38" spans="1:32" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="26"/>
-      <c r="B38" s="142"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="142"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143"/>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="143"/>
-      <c r="R38" s="143"/>
-      <c r="S38" s="143"/>
-      <c r="T38" s="143"/>
-      <c r="U38" s="143"/>
-      <c r="V38" s="143"/>
-      <c r="W38" s="143"/>
-      <c r="X38" s="143"/>
-      <c r="Y38" s="143"/>
-      <c r="Z38" s="143"/>
-      <c r="AA38" s="143"/>
-      <c r="AB38" s="144"/>
-      <c r="AC38" s="142"/>
-      <c r="AD38" s="143"/>
-      <c r="AE38" s="144"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="146"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="146"/>
+      <c r="N38" s="146"/>
+      <c r="O38" s="146"/>
+      <c r="P38" s="146"/>
+      <c r="Q38" s="146"/>
+      <c r="R38" s="146"/>
+      <c r="S38" s="146"/>
+      <c r="T38" s="146"/>
+      <c r="U38" s="146"/>
+      <c r="V38" s="146"/>
+      <c r="W38" s="146"/>
+      <c r="X38" s="146"/>
+      <c r="Y38" s="146"/>
+      <c r="Z38" s="146"/>
+      <c r="AA38" s="146"/>
+      <c r="AB38" s="147"/>
+      <c r="AC38" s="145"/>
+      <c r="AD38" s="146"/>
+      <c r="AE38" s="147"/>
       <c r="AF38" s="43"/>
     </row>
-    <row r="39" spans="1:32" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="26"/>
-      <c r="B39" s="142"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="142"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="143"/>
-      <c r="M39" s="143"/>
-      <c r="N39" s="143"/>
-      <c r="O39" s="143"/>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="143"/>
-      <c r="R39" s="143"/>
-      <c r="S39" s="143"/>
-      <c r="T39" s="143"/>
-      <c r="U39" s="143"/>
-      <c r="V39" s="143"/>
-      <c r="W39" s="143"/>
-      <c r="X39" s="143"/>
-      <c r="Y39" s="143"/>
-      <c r="Z39" s="143"/>
-      <c r="AA39" s="143"/>
-      <c r="AB39" s="144"/>
-      <c r="AC39" s="142"/>
-      <c r="AD39" s="143"/>
-      <c r="AE39" s="144"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="146"/>
+      <c r="L39" s="146"/>
+      <c r="M39" s="146"/>
+      <c r="N39" s="146"/>
+      <c r="O39" s="146"/>
+      <c r="P39" s="146"/>
+      <c r="Q39" s="146"/>
+      <c r="R39" s="146"/>
+      <c r="S39" s="146"/>
+      <c r="T39" s="146"/>
+      <c r="U39" s="146"/>
+      <c r="V39" s="146"/>
+      <c r="W39" s="146"/>
+      <c r="X39" s="146"/>
+      <c r="Y39" s="146"/>
+      <c r="Z39" s="146"/>
+      <c r="AA39" s="146"/>
+      <c r="AB39" s="147"/>
+      <c r="AC39" s="145"/>
+      <c r="AD39" s="146"/>
+      <c r="AE39" s="147"/>
       <c r="AF39" s="43"/>
     </row>
-    <row r="40" spans="1:32" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="26"/>
-      <c r="B40" s="142"/>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="142"/>
-      <c r="K40" s="143"/>
-      <c r="L40" s="143"/>
-      <c r="M40" s="143"/>
-      <c r="N40" s="143"/>
-      <c r="O40" s="143"/>
-      <c r="P40" s="143"/>
-      <c r="Q40" s="143"/>
-      <c r="R40" s="143"/>
-      <c r="S40" s="143"/>
-      <c r="T40" s="143"/>
-      <c r="U40" s="143"/>
-      <c r="V40" s="143"/>
-      <c r="W40" s="143"/>
-      <c r="X40" s="143"/>
-      <c r="Y40" s="143"/>
-      <c r="Z40" s="143"/>
-      <c r="AA40" s="143"/>
-      <c r="AB40" s="144"/>
-      <c r="AC40" s="142"/>
-      <c r="AD40" s="143"/>
-      <c r="AE40" s="144"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="146"/>
+      <c r="M40" s="146"/>
+      <c r="N40" s="146"/>
+      <c r="O40" s="146"/>
+      <c r="P40" s="146"/>
+      <c r="Q40" s="146"/>
+      <c r="R40" s="146"/>
+      <c r="S40" s="146"/>
+      <c r="T40" s="146"/>
+      <c r="U40" s="146"/>
+      <c r="V40" s="146"/>
+      <c r="W40" s="146"/>
+      <c r="X40" s="146"/>
+      <c r="Y40" s="146"/>
+      <c r="Z40" s="146"/>
+      <c r="AA40" s="146"/>
+      <c r="AB40" s="147"/>
+      <c r="AC40" s="145"/>
+      <c r="AD40" s="146"/>
+      <c r="AE40" s="147"/>
       <c r="AF40" s="43"/>
     </row>
-    <row r="41" spans="1:32" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="30"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
@@ -5513,6 +5154,17 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="AD12:AE13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="J23:AB23"/>
@@ -5585,17 +5237,6 @@
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:AB40"/>
     <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AB12:AC13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5616,183 +5257,216 @@
       <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="20" customWidth="1"/>
-    <col min="7" max="33" width="4.109375" style="19" customWidth="1"/>
-    <col min="34" max="37" width="4" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="19" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="19" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="19" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="19" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" style="19" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="19" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" style="19" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="19" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="19" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="19" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="19" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="19" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="19" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="19" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="19" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" style="19" customWidth="1"/>
+    <col min="32" max="32" width="4.109375" style="19" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" style="19" customWidth="1"/>
+    <col min="34" max="34" width="4" style="19" customWidth="1"/>
+    <col min="35" max="35" width="4" style="19" customWidth="1"/>
+    <col min="36" max="36" width="4" style="19" customWidth="1"/>
+    <col min="37" max="37" width="4" style="19" customWidth="1"/>
     <col min="38" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="167"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="167"/>
-    </row>
-    <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="139" t="s">
+    <row r="1">
+      <c r="A1" s="170" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="170"/>
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="170"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="170"/>
+    </row>
+    <row r="2" ht="12">
+      <c r="A2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="139" t="s">
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="139" t="s">
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="141"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="144"/>
       <c r="AD2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="39"/>
-      <c r="AF2" s="139" t="s">
+      <c r="AF2" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="141"/>
-    </row>
-    <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="129" t="str">
-        <f>表紙!B12</f>
+      <c r="AG2" s="144"/>
+    </row>
+    <row r="3" ht="12">
+      <c r="A3" s="132" t="str">
+        <f>'表紙'!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="129">
-        <f>表紙!G12</f>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="132">
+        <f>'表紙'!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="135" t="str">
-        <f>表紙!M12</f>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="138" t="str">
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）／在庫情報一覧（画面）／在庫登録（画面）</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="129" t="str">
-        <f>表紙!AB12</f>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="139"/>
+      <c r="AD3" s="132" t="str">
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="129" t="str">
-        <f>表紙!AD12</f>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="132" t="str">
+        <f>'表紙'!AD12</f>
         <v>金原</v>
       </c>
-      <c r="AG3" s="131"/>
-    </row>
-    <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="132"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="166"/>
-      <c r="Z4" s="166"/>
-      <c r="AA4" s="166"/>
-      <c r="AB4" s="166"/>
-      <c r="AC4" s="138"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="134"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="134"/>
-    </row>
-    <row r="5" spans="1:177" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="AG3" s="134"/>
+    </row>
+    <row r="4" ht="12">
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="169"/>
+      <c r="T4" s="169"/>
+      <c r="U4" s="169"/>
+      <c r="V4" s="169"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="169"/>
+      <c r="Y4" s="169"/>
+      <c r="Z4" s="169"/>
+      <c r="AA4" s="169"/>
+      <c r="AB4" s="169"/>
+      <c r="AC4" s="141"/>
+      <c r="AD4" s="135"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="135"/>
+      <c r="AG4" s="137"/>
+    </row>
+    <row r="5" customFormat="1" s="18">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -5971,7 +5645,7 @@
       <c r="FT5" s="41"/>
       <c r="FU5" s="41"/>
     </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -6006,7 +5680,7 @@
       <c r="AF6" s="25"/>
       <c r="AG6" s="42"/>
     </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="26"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -6041,7 +5715,7 @@
       <c r="AF7" s="37"/>
       <c r="AG7" s="43"/>
     </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="26"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -6073,7 +5747,7 @@
       <c r="AF8" s="37"/>
       <c r="AG8" s="43"/>
     </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="26"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -6107,7 +5781,7 @@
       <c r="AF9" s="37"/>
       <c r="AG9" s="43"/>
     </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="26"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -6141,7 +5815,7 @@
       <c r="AF10" s="37"/>
       <c r="AG10" s="43"/>
     </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="26"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -6174,7 +5848,7 @@
       <c r="AF11" s="37"/>
       <c r="AG11" s="43"/>
     </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="26"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -6207,7 +5881,7 @@
       <c r="AF12" s="37"/>
       <c r="AG12" s="43"/>
     </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="26"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -6239,7 +5913,7 @@
       <c r="AF13" s="37"/>
       <c r="AG13" s="43"/>
     </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="26"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -6273,7 +5947,7 @@
       <c r="AF14" s="37"/>
       <c r="AG14" s="43"/>
     </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="26"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -6307,7 +5981,7 @@
       <c r="AF15" s="37"/>
       <c r="AG15" s="43"/>
     </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="26"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -6334,7 +6008,7 @@
       <c r="AF16" s="37"/>
       <c r="AG16" s="43"/>
     </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="26"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -6362,7 +6036,7 @@
       <c r="AF17" s="37"/>
       <c r="AG17" s="43"/>
     </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="26"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -6389,7 +6063,7 @@
       <c r="AF18" s="37"/>
       <c r="AG18" s="43"/>
     </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="26"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -6416,7 +6090,7 @@
       <c r="AF19" s="37"/>
       <c r="AG19" s="43"/>
     </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="26"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -6443,7 +6117,7 @@
       <c r="AF20" s="37"/>
       <c r="AG20" s="43"/>
     </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="26"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -6470,7 +6144,7 @@
       <c r="AF21" s="37"/>
       <c r="AG21" s="43"/>
     </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="26"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -6497,7 +6171,7 @@
       <c r="AF22" s="37"/>
       <c r="AG22" s="43"/>
     </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="26"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -6524,7 +6198,7 @@
       <c r="AF23" s="37"/>
       <c r="AG23" s="43"/>
     </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="26"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -6559,7 +6233,7 @@
       <c r="AF24" s="37"/>
       <c r="AG24" s="43"/>
     </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="26"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -6594,7 +6268,7 @@
       <c r="AF25" s="37"/>
       <c r="AG25" s="43"/>
     </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="26"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -6629,7 +6303,7 @@
       <c r="AF26" s="37"/>
       <c r="AG26" s="43"/>
     </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="26"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -6664,7 +6338,7 @@
       <c r="AF27" s="37"/>
       <c r="AG27" s="43"/>
     </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="26"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -6699,7 +6373,7 @@
       <c r="AF28" s="37"/>
       <c r="AG28" s="43"/>
     </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="26"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -6734,7 +6408,7 @@
       <c r="AF29" s="37"/>
       <c r="AG29" s="43"/>
     </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="26"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -6769,7 +6443,7 @@
       <c r="AF30" s="37"/>
       <c r="AG30" s="43"/>
     </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="26"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -6797,7 +6471,7 @@
       <c r="AF31" s="37"/>
       <c r="AG31" s="43"/>
     </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="26"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -6831,7 +6505,7 @@
       <c r="AF32" s="37"/>
       <c r="AG32" s="43"/>
     </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="26"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -6865,7 +6539,7 @@
       <c r="AF33" s="37"/>
       <c r="AG33" s="43"/>
     </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="26"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -6893,7 +6567,7 @@
       <c r="AF34" s="37"/>
       <c r="AG34" s="43"/>
     </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="26"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -6920,7 +6594,7 @@
       <c r="AF35" s="37"/>
       <c r="AG35" s="43"/>
     </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="26"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -6954,7 +6628,7 @@
       <c r="AF36" s="37"/>
       <c r="AG36" s="43"/>
     </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="26"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -6981,7 +6655,7 @@
       <c r="AF37" s="37"/>
       <c r="AG37" s="43"/>
     </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="26"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -7016,7 +6690,7 @@
       <c r="AF38" s="37"/>
       <c r="AG38" s="43"/>
     </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="26"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -7051,7 +6725,7 @@
       <c r="AF39" s="37"/>
       <c r="AG39" s="43"/>
     </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="30"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
@@ -7086,9 +6760,9 @@
       <c r="AF40" s="31"/>
       <c r="AG40" s="44"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -7123,7 +6797,7 @@
       <c r="AF41" s="37"/>
       <c r="AG41" s="43"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="26"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -7158,7 +6832,7 @@
       <c r="AF42" s="37"/>
       <c r="AG42" s="43"/>
     </row>
-    <row r="43" spans="1:33" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="26"/>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
@@ -7193,7 +6867,7 @@
       <c r="AF43" s="37"/>
       <c r="AG43" s="43"/>
     </row>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -7235,11 +6909,11 @@
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7256,187 +6930,220 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+    <sheetView zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="J1">
+      <pane ySplit="5" topLeftCell="D6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="20" customWidth="1"/>
-    <col min="7" max="33" width="4.109375" style="19" customWidth="1"/>
-    <col min="34" max="37" width="4" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="19" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="19" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="19" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="19" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" style="19" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="19" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" style="19" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="19" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="19" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="19" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="19" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="19" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="19" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="19" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="19" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" style="19" customWidth="1"/>
+    <col min="32" max="32" width="4.109375" style="19" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" style="19" customWidth="1"/>
+    <col min="34" max="34" width="4" style="19" customWidth="1"/>
+    <col min="35" max="35" width="4" style="19" customWidth="1"/>
+    <col min="36" max="36" width="4" style="19" customWidth="1"/>
+    <col min="37" max="37" width="4" style="19" customWidth="1"/>
     <col min="38" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="167" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="167"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="167"/>
-    </row>
-    <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="139" t="s">
+    <row r="1">
+      <c r="A1" s="170" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="170"/>
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="170"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="170"/>
+    </row>
+    <row r="2" ht="12">
+      <c r="A2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="139" t="s">
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="139" t="s">
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="141"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="144"/>
       <c r="AD2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="39"/>
-      <c r="AF2" s="139" t="s">
+      <c r="AF2" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="141"/>
-    </row>
-    <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="129" t="str">
-        <f>表紙!B12</f>
+      <c r="AG2" s="144"/>
+    </row>
+    <row r="3" ht="12">
+      <c r="A3" s="132" t="str">
+        <f>'表紙'!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="129">
-        <f>表紙!G12</f>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="132">
+        <f>'表紙'!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="135" t="str">
-        <f>表紙!M12</f>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="138" t="str">
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）／在庫情報一覧（画面）／在庫登録（画面）</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="129" t="str">
-        <f>表紙!AB12</f>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="139"/>
+      <c r="AD3" s="132" t="str">
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="129" t="s">
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="131"/>
-    </row>
-    <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="132"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="166"/>
-      <c r="Z4" s="166"/>
-      <c r="AA4" s="166"/>
-      <c r="AB4" s="166"/>
-      <c r="AC4" s="138"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="134"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="134"/>
-    </row>
-    <row r="5" spans="1:177" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="AG3" s="134"/>
+    </row>
+    <row r="4" ht="12">
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="169"/>
+      <c r="T4" s="169"/>
+      <c r="U4" s="169"/>
+      <c r="V4" s="169"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="169"/>
+      <c r="Y4" s="169"/>
+      <c r="Z4" s="169"/>
+      <c r="AA4" s="169"/>
+      <c r="AB4" s="169"/>
+      <c r="AC4" s="141"/>
+      <c r="AD4" s="135"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="135"/>
+      <c r="AG4" s="137"/>
+    </row>
+    <row r="5" customFormat="1" s="18">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -7615,7 +7322,7 @@
       <c r="FT5" s="41"/>
       <c r="FU5" s="41"/>
     </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -7650,7 +7357,7 @@
       <c r="AF6" s="25"/>
       <c r="AG6" s="42"/>
     </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="26"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -7685,10 +7392,10 @@
       <c r="AF7" s="27"/>
       <c r="AG7" s="43"/>
       <c r="AI7" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -7723,10 +7430,10 @@
       <c r="AF8" s="27"/>
       <c r="AG8" s="43"/>
       <c r="AI8" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="26"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -7761,7 +7468,7 @@
       <c r="AF9" s="27"/>
       <c r="AG9" s="43"/>
     </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="26"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -7796,7 +7503,7 @@
       <c r="AF10" s="27"/>
       <c r="AG10" s="43"/>
     </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="26"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -7831,10 +7538,10 @@
       <c r="AF11" s="27"/>
       <c r="AG11" s="43"/>
       <c r="AI11" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -7869,10 +7576,10 @@
       <c r="AF12" s="27"/>
       <c r="AG12" s="43"/>
       <c r="AJ12" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -7907,35 +7614,35 @@
       <c r="AF13" s="27"/>
       <c r="AG13" s="43"/>
       <c r="AJ13" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="26"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
       <c r="O14" s="219"/>
       <c r="P14" s="219"/>
-      <c r="Q14" s="168"/>
+      <c r="Q14" s="171"/>
       <c r="R14" s="219"/>
-      <c r="S14" s="168"/>
+      <c r="S14" s="171"/>
       <c r="T14" s="219"/>
       <c r="U14" s="219"/>
-      <c r="V14" s="168"/>
+      <c r="V14" s="171"/>
       <c r="W14" s="219"/>
       <c r="X14" s="219"/>
-      <c r="Y14" s="168"/>
+      <c r="Y14" s="171"/>
       <c r="Z14" s="219"/>
       <c r="AA14" s="219"/>
       <c r="AB14" s="219"/>
@@ -7944,39 +7651,39 @@
       <c r="AE14" s="219"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="43"/>
-      <c r="AK14" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AJ14" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="26"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="27" t="s">
-        <v>27</v>
+      <c r="G15" s="130" t="s">
+        <v>29</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
       <c r="O15" s="35"/>
       <c r="P15" s="27"/>
-      <c r="Q15" s="168"/>
-      <c r="R15" s="168"/>
-      <c r="S15" s="170"/>
-      <c r="T15" s="170"/>
-      <c r="U15" s="170"/>
-      <c r="V15" s="171"/>
-      <c r="W15" s="171"/>
-      <c r="X15" s="171"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="175"/>
+      <c r="U15" s="175"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="176"/>
       <c r="Y15" s="28"/>
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
@@ -7986,11 +7693,11 @@
       <c r="AE15" s="27"/>
       <c r="AF15" s="36"/>
       <c r="AG15" s="43"/>
-      <c r="AL15" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AK15" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -8024,25 +7731,25 @@
       <c r="AE16" s="27"/>
       <c r="AF16" s="36"/>
       <c r="AG16" s="43"/>
-      <c r="AK16" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AL16" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="27" t="s">
-        <v>31</v>
+      <c r="G17" s="130" t="s">
+        <v>33</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
       <c r="K17" s="33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
@@ -8066,11 +7773,11 @@
       <c r="AE17" s="27"/>
       <c r="AF17" s="36"/>
       <c r="AG17" s="43"/>
-      <c r="AL17" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AK17" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -8104,8 +7811,11 @@
       <c r="AE18" s="27"/>
       <c r="AF18" s="36"/>
       <c r="AG18" s="43"/>
-    </row>
-    <row r="19" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AL18" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -8116,15 +7826,15 @@
       <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
-      <c r="K19" s="214" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="215"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="215"/>
-      <c r="O19" s="213"/>
-      <c r="P19" s="213"/>
-      <c r="Q19" s="213"/>
+      <c r="K19" s="172" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="173"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="28"/>
       <c r="T19" s="27"/>
@@ -8142,7 +7852,7 @@
       <c r="AF19" s="36"/>
       <c r="AG19" s="43"/>
     </row>
-    <row r="20" spans="1:38" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -8153,15 +7863,15 @@
       <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
-      <c r="K20" s="211" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="212"/>
-      <c r="M20" s="212"/>
-      <c r="N20" s="212"/>
-      <c r="O20" s="212"/>
-      <c r="P20" s="212"/>
-      <c r="Q20" s="212"/>
+      <c r="K20" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="129"/>
       <c r="R20" s="115"/>
       <c r="S20" s="115"/>
       <c r="T20" s="116"/>
@@ -8178,8 +7888,11 @@
       <c r="AE20" s="27"/>
       <c r="AF20" s="36"/>
       <c r="AG20" s="43"/>
-    </row>
-    <row r="21" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AK20" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -8213,8 +7926,11 @@
       <c r="AE21" s="27"/>
       <c r="AF21" s="36"/>
       <c r="AG21" s="43"/>
-    </row>
-    <row r="22" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AL21" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -8248,8 +7964,11 @@
       <c r="AE22" s="27"/>
       <c r="AF22" s="36"/>
       <c r="AG22" s="43"/>
-    </row>
-    <row r="23" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AL22" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -8284,7 +8003,7 @@
       <c r="AF23" s="36"/>
       <c r="AG23" s="43"/>
     </row>
-    <row r="24" spans="1:38" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -8319,7 +8038,7 @@
       <c r="AF24" s="36"/>
       <c r="AG24" s="43"/>
     </row>
-    <row r="25" spans="1:38" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -8354,7 +8073,7 @@
       <c r="AF25" s="36"/>
       <c r="AG25" s="43"/>
     </row>
-    <row r="26" spans="1:38" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -8389,7 +8108,7 @@
       <c r="AF26" s="36"/>
       <c r="AG26" s="43"/>
     </row>
-    <row r="27" spans="1:38" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -8424,7 +8143,7 @@
       <c r="AF27" s="36"/>
       <c r="AG27" s="43"/>
     </row>
-    <row r="28" spans="1:38" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -8459,7 +8178,7 @@
       <c r="AF28" s="36"/>
       <c r="AG28" s="43"/>
     </row>
-    <row r="29" spans="1:38" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -8494,7 +8213,7 @@
       <c r="AF29" s="36"/>
       <c r="AG29" s="43"/>
     </row>
-    <row r="30" spans="1:38" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -8529,7 +8248,7 @@
       <c r="AF30" s="36"/>
       <c r="AG30" s="43"/>
     </row>
-    <row r="31" spans="1:38" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -8564,7 +8283,7 @@
       <c r="AF31" s="36"/>
       <c r="AG31" s="43"/>
     </row>
-    <row r="32" spans="1:38" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -8599,7 +8318,7 @@
       <c r="AF32" s="36"/>
       <c r="AG32" s="43"/>
     </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -8634,7 +8353,7 @@
       <c r="AF33" s="36"/>
       <c r="AG33" s="43"/>
     </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="26"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -8669,7 +8388,7 @@
       <c r="AF34" s="36"/>
       <c r="AG34" s="43"/>
     </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="26"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -8704,7 +8423,7 @@
       <c r="AF35" s="36"/>
       <c r="AG35" s="43"/>
     </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="26"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -8739,7 +8458,7 @@
       <c r="AF36" s="36"/>
       <c r="AG36" s="43"/>
     </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -8774,7 +8493,7 @@
       <c r="AF37" s="36"/>
       <c r="AG37" s="43"/>
     </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -8809,7 +8528,7 @@
       <c r="AF38" s="36"/>
       <c r="AG38" s="43"/>
     </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -8844,7 +8563,7 @@
       <c r="AF39" s="36"/>
       <c r="AG39" s="43"/>
     </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="26"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -8879,7 +8598,7 @@
       <c r="AF40" s="36"/>
       <c r="AG40" s="43"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="26"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -8914,7 +8633,7 @@
       <c r="AF41" s="36"/>
       <c r="AG41" s="43"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -8949,7 +8668,7 @@
       <c r="AF42" s="27"/>
       <c r="AG42" s="43"/>
     </row>
-    <row r="43" spans="1:33" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="26"/>
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
@@ -8967,7 +8686,7 @@
       <c r="AF43" s="37"/>
       <c r="AG43" s="43"/>
     </row>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -9004,30 +8723,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K19:N19"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AE14"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="S14:U14"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AE14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="K19:N19"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9044,188 +8763,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="V6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI9" sqref="AI9"/>
+      <selection pane="bottomLeft" activeCell="AE17" sqref="AE17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="58" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="86" customWidth="1"/>
-    <col min="7" max="33" width="4.109375" style="58" customWidth="1"/>
-    <col min="34" max="37" width="4" style="58" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="86" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="86" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="58" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="58" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="58" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="58" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="58" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="58" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="58" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="58" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="58" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="58" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="58" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="58" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" style="58" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="58" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" style="58" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="58" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="58" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="58" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="58" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="58" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="58" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="58" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="58" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" style="58" customWidth="1"/>
+    <col min="32" max="32" width="4.109375" style="58" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" style="58" customWidth="1"/>
+    <col min="34" max="34" width="4" style="58" customWidth="1"/>
+    <col min="35" max="35" width="4" style="58" customWidth="1"/>
+    <col min="36" max="36" width="4" style="58" customWidth="1"/>
+    <col min="37" max="37" width="4" style="58" customWidth="1"/>
     <col min="38" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="176" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-    </row>
-    <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="177" t="s">
+    <row r="1">
+      <c r="A1" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="181"/>
+    </row>
+    <row r="2" ht="12">
+      <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="177" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="177" t="s">
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="179"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="184"/>
       <c r="AD2" s="59" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="60"/>
-      <c r="AF2" s="177" t="s">
+      <c r="AF2" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="179"/>
-    </row>
-    <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="180" t="str">
-        <f>表紙!B12</f>
+      <c r="AG2" s="184"/>
+    </row>
+    <row r="3" ht="12">
+      <c r="A3" s="185" t="str">
+        <f>'表紙'!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="180">
-        <f>表紙!G12</f>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="185">
+        <f>'表紙'!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="186" t="str">
-        <f>表紙!M12</f>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="191" t="str">
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）／在庫情報一覧（画面）／在庫登録（画面）</v>
       </c>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="188"/>
-      <c r="AD3" s="180" t="str">
-        <f>表紙!AB12</f>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="192"/>
+      <c r="AC3" s="193"/>
+      <c r="AD3" s="185" t="str">
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="180" t="str">
-        <f>表紙!AD12</f>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="185" t="str">
+        <f>'表紙'!AD12</f>
         <v>金原</v>
       </c>
-      <c r="AG3" s="182"/>
-    </row>
-    <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="183"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="190"/>
-      <c r="P4" s="190"/>
-      <c r="Q4" s="190"/>
-      <c r="R4" s="190"/>
-      <c r="S4" s="190"/>
-      <c r="T4" s="190"/>
-      <c r="U4" s="190"/>
-      <c r="V4" s="190"/>
-      <c r="W4" s="190"/>
-      <c r="X4" s="190"/>
-      <c r="Y4" s="190"/>
-      <c r="Z4" s="190"/>
-      <c r="AA4" s="190"/>
-      <c r="AB4" s="190"/>
-      <c r="AC4" s="191"/>
-      <c r="AD4" s="183"/>
-      <c r="AE4" s="185"/>
-      <c r="AF4" s="183"/>
-      <c r="AG4" s="185"/>
-    </row>
-    <row r="5" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
+      <c r="AG3" s="187"/>
+    </row>
+    <row r="4" ht="12">
+      <c r="A4" s="188"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="196"/>
+      <c r="AD4" s="188"/>
+      <c r="AE4" s="190"/>
+      <c r="AF4" s="188"/>
+      <c r="AG4" s="190"/>
+    </row>
+    <row r="5" customFormat="1" s="68">
       <c r="A5" s="61"/>
       <c r="B5" s="62"/>
       <c r="C5" s="63"/>
@@ -9404,7 +9156,7 @@
       <c r="FT5" s="67"/>
       <c r="FU5" s="67"/>
     </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="69"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -9439,17 +9191,17 @@
       <c r="AF6" s="70"/>
       <c r="AG6" s="71"/>
     </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="72"/>
       <c r="B7" s="73"/>
       <c r="C7" s="56" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
       <c r="G7" s="74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="75"/>
       <c r="I7" s="75"/>
@@ -9459,18 +9211,18 @@
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
       <c r="O7" s="56" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P7" s="73"/>
       <c r="Q7" s="73"/>
       <c r="R7" s="73"/>
       <c r="S7" s="90" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="T7" s="75"/>
       <c r="U7" s="75"/>
       <c r="V7" s="57" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="W7" s="73"/>
       <c r="X7" s="73"/>
@@ -9484,10 +9236,10 @@
       <c r="AF7" s="73"/>
       <c r="AG7" s="77"/>
       <c r="AI7" s="58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="72"/>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
@@ -9522,28 +9274,28 @@
       <c r="AF8" s="73"/>
       <c r="AG8" s="77"/>
       <c r="AI8" s="58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="56" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D9" s="73"/>
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
       <c r="G9" s="74" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H9" s="75"/>
       <c r="I9" s="76"/>
       <c r="J9" s="80" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K9" s="74" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L9" s="75"/>
       <c r="M9" s="76"/>
@@ -9557,25 +9309,25 @@
       <c r="U9" s="80"/>
       <c r="V9" s="80"/>
       <c r="W9" s="73"/>
-      <c r="X9" s="173" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y9" s="173"/>
+      <c r="X9" s="178" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" s="178"/>
       <c r="Z9" s="73"/>
-      <c r="AA9" s="173" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB9" s="172"/>
+      <c r="AA9" s="178" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="177"/>
       <c r="AC9" s="73"/>
       <c r="AD9" s="73"/>
       <c r="AE9" s="73"/>
       <c r="AF9" s="73"/>
       <c r="AG9" s="77"/>
       <c r="AI9" s="58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="72"/>
       <c r="B10" s="73"/>
       <c r="C10" s="73"/>
@@ -9610,7 +9362,7 @@
       <c r="AF10" s="73"/>
       <c r="AG10" s="77"/>
     </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
@@ -9645,20 +9397,20 @@
       <c r="AF11" s="73"/>
       <c r="AG11" s="77"/>
       <c r="AI11" s="58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="72"/>
-      <c r="B12" s="173" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="172"/>
+      <c r="B12" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="177"/>
       <c r="D12" s="73"/>
-      <c r="E12" s="173" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="172"/>
+      <c r="E12" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="177"/>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
       <c r="I12" s="73"/>
@@ -9687,10 +9439,10 @@
       <c r="AF12" s="73"/>
       <c r="AG12" s="77"/>
       <c r="AJ12" s="58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="C13" s="73"/>
@@ -9725,69 +9477,69 @@
       <c r="AF13" s="73"/>
       <c r="AG13" s="77"/>
       <c r="AJ13" s="58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="72"/>
-      <c r="B14" s="174" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="175"/>
-      <c r="D14" s="172" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="192" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="175"/>
-      <c r="L14" s="192" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="193"/>
-      <c r="N14" s="192" t="s">
+      <c r="B14" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="194"/>
-      <c r="P14" s="194"/>
-      <c r="Q14" s="194"/>
-      <c r="R14" s="175"/>
-      <c r="S14" s="192" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="194"/>
-      <c r="U14" s="194"/>
-      <c r="V14" s="194"/>
-      <c r="W14" s="175"/>
-      <c r="X14" s="195" t="s">
+      <c r="C14" s="180"/>
+      <c r="D14" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="Y14" s="196"/>
-      <c r="Z14" s="196"/>
-      <c r="AA14" s="197"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="197" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="180"/>
+      <c r="L14" s="197" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="198"/>
+      <c r="N14" s="197" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="199"/>
+      <c r="P14" s="199"/>
+      <c r="Q14" s="199"/>
+      <c r="R14" s="180"/>
+      <c r="S14" s="197" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="199"/>
+      <c r="U14" s="199"/>
+      <c r="V14" s="199"/>
+      <c r="W14" s="180"/>
+      <c r="X14" s="200" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y14" s="201"/>
+      <c r="Z14" s="201"/>
+      <c r="AA14" s="202"/>
       <c r="AB14" s="91"/>
       <c r="AG14" s="92"/>
     </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="72"/>
-      <c r="B15" s="174" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="175"/>
+      <c r="B15" s="179" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="180"/>
       <c r="D15" s="74" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E15" s="75"/>
       <c r="F15" s="76"/>
       <c r="G15" s="75" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H15" s="75"/>
       <c r="I15" s="93"/>
@@ -9796,41 +9548,41 @@
       </c>
       <c r="K15" s="121"/>
       <c r="L15" s="126" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M15" s="127"/>
       <c r="O15" s="119"/>
       <c r="P15" s="122" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q15" s="123"/>
       <c r="R15" s="123"/>
       <c r="S15" s="94" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T15" s="75"/>
       <c r="U15" s="75"/>
       <c r="V15" s="75"/>
       <c r="W15" s="76"/>
       <c r="X15" s="113" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y15" s="114" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Z15" s="117" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AA15" s="118"/>
       <c r="AB15" s="95" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AG15" s="92"/>
       <c r="AI15" s="58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="72"/>
       <c r="B16" s="96"/>
       <c r="C16" s="73"/>
@@ -9861,10 +9613,10 @@
       <c r="AB16" s="95"/>
       <c r="AG16" s="92"/>
       <c r="AJ16" s="58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" ht="12.75" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="72"/>
       <c r="B17" s="96"/>
       <c r="C17" s="73"/>
@@ -9894,7 +9646,7 @@
       <c r="AB17" s="95"/>
       <c r="AG17" s="92"/>
     </row>
-    <row r="18" spans="1:36" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="72"/>
       <c r="B18" s="96"/>
       <c r="C18" s="73"/>
@@ -9924,10 +9676,10 @@
       <c r="AB18" s="95"/>
       <c r="AG18" s="92"/>
       <c r="AI18" s="58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" ht="12.75" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="72"/>
       <c r="B19" s="96"/>
       <c r="C19" s="73"/>
@@ -9957,10 +9709,10 @@
       <c r="AB19" s="95"/>
       <c r="AG19" s="92"/>
       <c r="AJ19" s="58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" ht="12.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="72"/>
       <c r="B20" s="96"/>
       <c r="C20" s="73"/>
@@ -9990,10 +9742,10 @@
       <c r="AB20" s="95"/>
       <c r="AG20" s="92"/>
       <c r="AJ20" s="58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" ht="12.75" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="72"/>
       <c r="B21" s="96"/>
       <c r="C21" s="73"/>
@@ -10023,7 +9775,7 @@
       <c r="AB21" s="95"/>
       <c r="AG21" s="92"/>
     </row>
-    <row r="22" spans="1:36" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="72"/>
       <c r="B22" s="96"/>
       <c r="C22" s="73"/>
@@ -10053,10 +9805,10 @@
       <c r="AB22" s="95"/>
       <c r="AG22" s="92"/>
       <c r="AI22" s="58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" ht="12.75" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="72"/>
       <c r="B23" s="96"/>
       <c r="C23" s="73"/>
@@ -10086,10 +9838,10 @@
       <c r="AB23" s="95"/>
       <c r="AG23" s="92"/>
       <c r="AJ23" s="58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" ht="12.75" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="72"/>
       <c r="B24" s="96"/>
       <c r="C24" s="73"/>
@@ -10119,7 +9871,7 @@
       <c r="AB24" s="95"/>
       <c r="AG24" s="92"/>
     </row>
-    <row r="25" spans="1:36" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="72"/>
       <c r="B25" s="96"/>
       <c r="C25" s="73"/>
@@ -10149,10 +9901,10 @@
       <c r="AB25" s="95"/>
       <c r="AG25" s="92"/>
       <c r="AI25" s="58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" ht="12.75" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="72"/>
       <c r="B26" s="96"/>
       <c r="C26" s="73"/>
@@ -10182,10 +9934,10 @@
       <c r="AB26" s="95"/>
       <c r="AG26" s="92"/>
       <c r="AJ26" s="58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" ht="12.75" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="72"/>
       <c r="B27" s="96"/>
       <c r="C27" s="73"/>
@@ -10215,7 +9967,7 @@
       <c r="AB27" s="95"/>
       <c r="AG27" s="92"/>
     </row>
-    <row r="28" spans="1:36" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="72"/>
       <c r="B28" s="96"/>
       <c r="C28" s="73"/>
@@ -10245,10 +9997,10 @@
       <c r="AB28" s="95"/>
       <c r="AG28" s="92"/>
       <c r="AI28" s="58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" ht="12.75" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="72"/>
       <c r="B29" s="96"/>
       <c r="C29" s="73"/>
@@ -10278,10 +10030,10 @@
       <c r="AB29" s="95"/>
       <c r="AG29" s="92"/>
       <c r="AJ29" s="58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" ht="12.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="72"/>
       <c r="B30" s="96"/>
       <c r="C30" s="73"/>
@@ -10311,7 +10063,7 @@
       <c r="AB30" s="95"/>
       <c r="AG30" s="92"/>
     </row>
-    <row r="31" spans="1:36" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="72"/>
       <c r="B31" s="96"/>
       <c r="C31" s="73"/>
@@ -10341,10 +10093,10 @@
       <c r="AB31" s="95"/>
       <c r="AG31" s="92"/>
       <c r="AI31" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" ht="12.75" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="72"/>
       <c r="B32" s="96"/>
       <c r="C32" s="73"/>
@@ -10374,10 +10126,10 @@
       <c r="AB32" s="95"/>
       <c r="AG32" s="92"/>
       <c r="AJ32" s="58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" ht="12.75" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="72"/>
       <c r="B33" s="96"/>
       <c r="C33" s="73"/>
@@ -10407,7 +10159,7 @@
       <c r="AB33" s="95"/>
       <c r="AG33" s="92"/>
     </row>
-    <row r="34" spans="1:36" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="72"/>
       <c r="B34" s="96"/>
       <c r="C34" s="73"/>
@@ -10438,7 +10190,7 @@
       <c r="AG34" s="92"/>
       <c r="AJ34" s="104"/>
     </row>
-    <row r="35" spans="1:36" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="72"/>
       <c r="B35" s="96"/>
       <c r="C35" s="73"/>
@@ -10468,7 +10220,7 @@
       <c r="AB35" s="95"/>
       <c r="AG35" s="92"/>
     </row>
-    <row r="36" spans="1:36" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="72"/>
       <c r="B36" s="96"/>
       <c r="C36" s="73"/>
@@ -10498,7 +10250,7 @@
       <c r="AB36" s="95"/>
       <c r="AG36" s="92"/>
     </row>
-    <row r="37" spans="1:36" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="72"/>
       <c r="B37" s="96"/>
       <c r="C37" s="73"/>
@@ -10528,7 +10280,7 @@
       <c r="AB37" s="95"/>
       <c r="AG37" s="92"/>
     </row>
-    <row r="38" spans="1:36" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="72"/>
       <c r="B38" s="96"/>
       <c r="C38" s="73"/>
@@ -10558,7 +10310,7 @@
       <c r="AB38" s="95"/>
       <c r="AG38" s="92"/>
     </row>
-    <row r="39" spans="1:36" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="72"/>
       <c r="B39" s="96"/>
       <c r="C39" s="73"/>
@@ -10588,7 +10340,7 @@
       <c r="AB39" s="95"/>
       <c r="AG39" s="92"/>
     </row>
-    <row r="40" spans="1:36" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="72"/>
       <c r="B40" s="96"/>
       <c r="C40" s="73"/>
@@ -10618,7 +10370,7 @@
       <c r="AB40" s="95"/>
       <c r="AG40" s="92"/>
     </row>
-    <row r="41" spans="1:36" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="72"/>
       <c r="B41" s="105"/>
       <c r="C41" s="106"/>
@@ -10647,11 +10399,11 @@
       <c r="Z41" s="111"/>
       <c r="AA41" s="89"/>
       <c r="AB41" s="112" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG41" s="92"/>
     </row>
-    <row r="42" spans="1:36" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="72"/>
       <c r="B42" s="73"/>
       <c r="C42" s="73"/>
@@ -10686,7 +10438,7 @@
       <c r="AF42" s="73"/>
       <c r="AG42" s="77"/>
     </row>
-    <row r="43" spans="1:36" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="72"/>
       <c r="S43" s="66"/>
       <c r="T43" s="66"/>
@@ -10704,7 +10456,7 @@
       <c r="AF43" s="66"/>
       <c r="AG43" s="77"/>
     </row>
-    <row r="44" spans="1:36" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="87"/>
       <c r="B44" s="88"/>
       <c r="C44" s="88"/>
@@ -10741,29 +10493,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:F14"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -10779,190 +10531,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" tabSelected="1" topLeftCell="Z1">
+      <pane ySplit="5" topLeftCell="Y6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="58" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="86" customWidth="1"/>
-    <col min="7" max="33" width="4.109375" style="58" customWidth="1"/>
-    <col min="34" max="35" width="4" style="58" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="86" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="86" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="58" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="58" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="58" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="58" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="58" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="58" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="58" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="58" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="58" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="58" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="58" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="58" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" style="58" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="58" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" style="58" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="58" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="58" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="58" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="58" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="58" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="58" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="58" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="58" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" style="58" customWidth="1"/>
+    <col min="32" max="32" width="4.109375" style="58" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" style="58" customWidth="1"/>
+    <col min="34" max="34" width="4" style="58" customWidth="1"/>
+    <col min="35" max="35" width="4" style="58" customWidth="1"/>
     <col min="36" max="36" width="4.6640625" style="58" customWidth="1"/>
     <col min="37" max="37" width="4" style="58" customWidth="1"/>
     <col min="38" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="176" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-    </row>
-    <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="177" t="s">
+    <row r="1">
+      <c r="A1" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="181"/>
+    </row>
+    <row r="2" ht="12">
+      <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="177" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="177" t="s">
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="179"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="184"/>
       <c r="AD2" s="59" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="60"/>
-      <c r="AF2" s="177" t="s">
+      <c r="AF2" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="179"/>
-    </row>
-    <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="180" t="str">
-        <f>表紙!B12</f>
+      <c r="AG2" s="184"/>
+    </row>
+    <row r="3" ht="12">
+      <c r="A3" s="185" t="str">
+        <f>'表紙'!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="180">
-        <f>表紙!G12</f>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="185">
+        <f>'表紙'!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="186" t="str">
-        <f>表紙!M12</f>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="191" t="str">
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）／在庫情報一覧（画面）／在庫登録（画面）</v>
       </c>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="188"/>
-      <c r="AD3" s="180" t="str">
-        <f>表紙!AB12</f>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="192"/>
+      <c r="AC3" s="193"/>
+      <c r="AD3" s="185" t="str">
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="180" t="str">
-        <f>表紙!AD12</f>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="185" t="str">
+        <f>'表紙'!AD12</f>
         <v>金原</v>
       </c>
-      <c r="AG3" s="182"/>
-    </row>
-    <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="183"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="190"/>
-      <c r="P4" s="190"/>
-      <c r="Q4" s="190"/>
-      <c r="R4" s="190"/>
-      <c r="S4" s="190"/>
-      <c r="T4" s="190"/>
-      <c r="U4" s="190"/>
-      <c r="V4" s="190"/>
-      <c r="W4" s="190"/>
-      <c r="X4" s="190"/>
-      <c r="Y4" s="190"/>
-      <c r="Z4" s="190"/>
-      <c r="AA4" s="190"/>
-      <c r="AB4" s="190"/>
-      <c r="AC4" s="191"/>
-      <c r="AD4" s="183"/>
-      <c r="AE4" s="185"/>
-      <c r="AF4" s="183"/>
-      <c r="AG4" s="185"/>
-    </row>
-    <row r="5" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
+      <c r="AG3" s="187"/>
+    </row>
+    <row r="4" ht="12">
+      <c r="A4" s="188"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="196"/>
+      <c r="AD4" s="188"/>
+      <c r="AE4" s="190"/>
+      <c r="AF4" s="188"/>
+      <c r="AG4" s="190"/>
+    </row>
+    <row r="5" customFormat="1" s="68">
       <c r="A5" s="61"/>
       <c r="B5" s="62"/>
       <c r="C5" s="63"/>
@@ -11141,7 +10924,7 @@
       <c r="FT5" s="67"/>
       <c r="FU5" s="67"/>
     </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="69"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -11176,20 +10959,20 @@
       <c r="AF6" s="70"/>
       <c r="AG6" s="71"/>
       <c r="AJ6" s="58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="72"/>
       <c r="B7" s="73"/>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
       <c r="G7" s="56" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="K7" s="74" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L7" s="75"/>
       <c r="M7" s="75"/>
@@ -11211,10 +10994,10 @@
       <c r="AF7" s="73"/>
       <c r="AG7" s="77"/>
       <c r="AJ7" s="58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="72"/>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
@@ -11242,20 +11025,20 @@
       <c r="AF8" s="73"/>
       <c r="AG8" s="77"/>
       <c r="AJ8" s="58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="F9" s="78"/>
-      <c r="G9" s="203" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
+      <c r="G9" s="214" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
       <c r="K9" s="74" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="L9" s="75"/>
       <c r="M9" s="75"/>
@@ -11276,11 +11059,8 @@
       <c r="AE9" s="73"/>
       <c r="AF9" s="73"/>
       <c r="AG9" s="77"/>
-      <c r="AJ9" s="58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+    </row>
+    <row r="10">
       <c r="A10" s="72"/>
       <c r="B10" s="73"/>
       <c r="C10" s="78"/>
@@ -11310,8 +11090,11 @@
       <c r="AE10" s="73"/>
       <c r="AF10" s="73"/>
       <c r="AG10" s="77"/>
-    </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AJ10" s="58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="F11" s="78"/>
@@ -11338,11 +11121,11 @@
       <c r="AE11" s="73"/>
       <c r="AF11" s="73"/>
       <c r="AG11" s="77"/>
-      <c r="AJ11" s="58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AK11" s="58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="72"/>
       <c r="B12" s="73"/>
       <c r="C12" s="78"/>
@@ -11372,32 +11155,32 @@
       <c r="AE12" s="73"/>
       <c r="AF12" s="73"/>
       <c r="AG12" s="77"/>
-      <c r="AK12" s="58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AJ12" s="58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="E13" s="78"/>
       <c r="F13" s="81"/>
-      <c r="G13" s="204" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="205"/>
+      <c r="G13" s="215" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="216"/>
       <c r="I13" s="79"/>
-      <c r="K13" s="206" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="207"/>
-      <c r="M13" s="207"/>
-      <c r="N13" s="207"/>
-      <c r="O13" s="207"/>
-      <c r="P13" s="207"/>
-      <c r="Q13" s="207"/>
-      <c r="R13" s="207"/>
-      <c r="S13" s="207"/>
-      <c r="T13" s="208"/>
+      <c r="K13" s="203" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="204"/>
+      <c r="Q13" s="204"/>
+      <c r="R13" s="204"/>
+      <c r="S13" s="204"/>
+      <c r="T13" s="205"/>
       <c r="U13" s="73"/>
       <c r="V13" s="73"/>
       <c r="W13" s="73"/>
@@ -11411,11 +11194,11 @@
       <c r="AE13" s="73"/>
       <c r="AF13" s="73"/>
       <c r="AG13" s="77"/>
-      <c r="AJ13" s="58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AK13" s="58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="72"/>
       <c r="B14" s="73"/>
       <c r="C14" s="78"/>
@@ -11445,11 +11228,11 @@
       <c r="AE14" s="82"/>
       <c r="AF14" s="73"/>
       <c r="AG14" s="77"/>
-      <c r="AK14" s="58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AJ14" s="58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="72"/>
       <c r="B15" s="83"/>
       <c r="C15" s="73"/>
@@ -11483,11 +11266,11 @@
       <c r="AE15" s="73"/>
       <c r="AF15" s="80"/>
       <c r="AG15" s="77"/>
-      <c r="AJ15" s="58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AK15" s="58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="72"/>
       <c r="B16" s="73"/>
       <c r="C16" s="78"/>
@@ -11496,20 +11279,20 @@
       <c r="F16" s="78"/>
       <c r="G16" s="79"/>
       <c r="H16" s="79"/>
-      <c r="I16" s="200" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="200"/>
+      <c r="I16" s="211" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="211"/>
       <c r="K16" s="73"/>
-      <c r="L16" s="198" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" s="199"/>
+      <c r="L16" s="209" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="210"/>
       <c r="N16" s="73"/>
-      <c r="O16" s="201" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="202"/>
+      <c r="O16" s="212" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="213"/>
       <c r="S16" s="84"/>
       <c r="T16" s="73"/>
       <c r="U16" s="73"/>
@@ -11525,11 +11308,8 @@
       <c r="AE16" s="73"/>
       <c r="AF16" s="80"/>
       <c r="AG16" s="77"/>
-      <c r="AK16" s="58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" ht="12.75" customHeight="1">
+    </row>
+    <row r="17">
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -11563,8 +11343,11 @@
       <c r="AE17" s="73"/>
       <c r="AF17" s="80"/>
       <c r="AG17" s="77"/>
-    </row>
-    <row r="18" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AJ17" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="72"/>
       <c r="B18" s="73"/>
       <c r="C18" s="78"/>
@@ -11573,13 +11356,13 @@
       <c r="F18" s="78"/>
       <c r="G18" s="78"/>
       <c r="H18" s="81"/>
-      <c r="I18" s="216" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="217"/>
-      <c r="K18" s="217"/>
-      <c r="L18" s="217"/>
-      <c r="M18" s="218"/>
+      <c r="I18" s="206" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="207"/>
+      <c r="K18" s="207"/>
+      <c r="L18" s="207"/>
+      <c r="M18" s="208"/>
       <c r="N18" s="73"/>
       <c r="O18" s="73"/>
       <c r="P18" s="73"/>
@@ -11600,11 +11383,11 @@
       <c r="AE18" s="73"/>
       <c r="AF18" s="80"/>
       <c r="AG18" s="77"/>
-      <c r="AJ18" s="58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AK18" s="58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -11638,11 +11421,8 @@
       <c r="AE19" s="73"/>
       <c r="AF19" s="80"/>
       <c r="AG19" s="77"/>
-      <c r="AK19" s="58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" ht="12.75" customHeight="1">
+    </row>
+    <row r="20">
       <c r="A20" s="72"/>
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
@@ -11676,8 +11456,11 @@
       <c r="AE20" s="73"/>
       <c r="AF20" s="80"/>
       <c r="AG20" s="77"/>
-    </row>
-    <row r="21" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AJ20" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
@@ -11711,11 +11494,11 @@
       <c r="AE21" s="73"/>
       <c r="AF21" s="80"/>
       <c r="AG21" s="77"/>
-      <c r="AJ21" s="58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AK21" s="58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="72"/>
       <c r="B22" s="73"/>
       <c r="C22" s="73"/>
@@ -11750,10 +11533,10 @@
       <c r="AF22" s="80"/>
       <c r="AG22" s="77"/>
       <c r="AK22" s="58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" ht="12.75" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="72"/>
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
@@ -11788,10 +11571,10 @@
       <c r="AF23" s="80"/>
       <c r="AG23" s="77"/>
       <c r="AK23" s="58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" ht="12.75" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="72"/>
       <c r="B24" s="73"/>
       <c r="C24" s="73"/>
@@ -11825,11 +11608,8 @@
       <c r="AE24" s="73"/>
       <c r="AF24" s="80"/>
       <c r="AG24" s="77"/>
-      <c r="AK24" s="58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" ht="12.75" customHeight="1">
+    </row>
+    <row r="25">
       <c r="A25" s="72"/>
       <c r="B25" s="73"/>
       <c r="C25" s="73"/>
@@ -11863,8 +11643,11 @@
       <c r="AE25" s="73"/>
       <c r="AF25" s="80"/>
       <c r="AG25" s="77"/>
-    </row>
-    <row r="26" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AJ25" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="72"/>
       <c r="B26" s="73"/>
       <c r="C26" s="73"/>
@@ -11898,11 +11681,11 @@
       <c r="AE26" s="73"/>
       <c r="AF26" s="80"/>
       <c r="AG26" s="77"/>
-      <c r="AJ26" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AK26" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="72"/>
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
@@ -11936,11 +11719,11 @@
       <c r="AE27" s="73"/>
       <c r="AF27" s="80"/>
       <c r="AG27" s="77"/>
-      <c r="AK27" s="58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AL27" s="58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="72"/>
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
@@ -11974,11 +11757,8 @@
       <c r="AE28" s="73"/>
       <c r="AF28" s="80"/>
       <c r="AG28" s="77"/>
-      <c r="AL28" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" ht="12.75" customHeight="1">
+    </row>
+    <row r="29">
       <c r="A29" s="72"/>
       <c r="B29" s="73"/>
       <c r="C29" s="73"/>
@@ -12012,8 +11792,11 @@
       <c r="AE29" s="73"/>
       <c r="AF29" s="80"/>
       <c r="AG29" s="77"/>
-    </row>
-    <row r="30" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AJ29" s="58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="72"/>
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
@@ -12047,11 +11830,11 @@
       <c r="AE30" s="73"/>
       <c r="AF30" s="80"/>
       <c r="AG30" s="77"/>
-      <c r="AJ30" s="58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AK30" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="72"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -12085,11 +11868,8 @@
       <c r="AE31" s="73"/>
       <c r="AF31" s="80"/>
       <c r="AG31" s="77"/>
-      <c r="AK31" s="58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" ht="12.75" customHeight="1">
+    </row>
+    <row r="32">
       <c r="A32" s="72"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
@@ -12123,8 +11903,11 @@
       <c r="AE32" s="73"/>
       <c r="AF32" s="80"/>
       <c r="AG32" s="77"/>
-    </row>
-    <row r="33" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AJ32" s="58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="72"/>
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
@@ -12158,11 +11941,11 @@
       <c r="AE33" s="73"/>
       <c r="AF33" s="80"/>
       <c r="AG33" s="77"/>
-      <c r="AJ33" s="58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AK33" s="58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="72"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
@@ -12196,11 +11979,8 @@
       <c r="AE34" s="73"/>
       <c r="AF34" s="80"/>
       <c r="AG34" s="77"/>
-      <c r="AK34" s="58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" ht="12.75" customHeight="1">
+    </row>
+    <row r="35">
       <c r="A35" s="72"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -12234,11 +12014,8 @@
       <c r="AE35" s="73"/>
       <c r="AF35" s="80"/>
       <c r="AG35" s="77"/>
-      <c r="AL35" s="58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38" ht="12.75" customHeight="1">
+    </row>
+    <row r="36">
       <c r="A36" s="72"/>
       <c r="B36" s="73"/>
       <c r="C36" s="73"/>
@@ -12273,7 +12050,7 @@
       <c r="AF36" s="80"/>
       <c r="AG36" s="77"/>
     </row>
-    <row r="37" spans="1:38" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="72"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
@@ -12308,7 +12085,7 @@
       <c r="AF37" s="80"/>
       <c r="AG37" s="77"/>
     </row>
-    <row r="38" spans="1:38" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="72"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
@@ -12343,7 +12120,7 @@
       <c r="AF38" s="80"/>
       <c r="AG38" s="77"/>
     </row>
-    <row r="39" spans="1:38" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="72"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
@@ -12378,7 +12155,7 @@
       <c r="AF39" s="80"/>
       <c r="AG39" s="77"/>
     </row>
-    <row r="40" spans="1:38" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="72"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
@@ -12413,7 +12190,7 @@
       <c r="AF40" s="80"/>
       <c r="AG40" s="77"/>
     </row>
-    <row r="41" spans="1:38" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="72"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
@@ -12448,7 +12225,7 @@
       <c r="AF41" s="80"/>
       <c r="AG41" s="77"/>
     </row>
-    <row r="42" spans="1:38" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="72"/>
       <c r="B42" s="73"/>
       <c r="C42" s="73"/>
@@ -12483,7 +12260,7 @@
       <c r="AF42" s="73"/>
       <c r="AG42" s="77"/>
     </row>
-    <row r="43" spans="1:38" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="72"/>
       <c r="S43" s="66"/>
       <c r="T43" s="66"/>
@@ -12501,7 +12278,7 @@
       <c r="AF43" s="66"/>
       <c r="AG43" s="77"/>
     </row>
-    <row r="44" spans="1:38" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="87"/>
       <c r="B44" s="88"/>
       <c r="C44" s="88"/>
@@ -12538,23 +12315,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="O16:P16"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="K13:T13"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="I18:M18"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -12574,7 +12351,7 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.21875" style="1" bestFit="1" customWidth="1"/>
@@ -12585,45 +12362,45 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" ht="18">
       <c r="A1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
+    <row r="5" customHeight="1" ht="30">
       <c r="A5" s="4">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="4">
@@ -12633,33 +12410,33 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
+    <row r="6" customHeight="1" ht="30">
       <c r="A6" s="4">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4">
         <v>1234</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="209" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="30">
+      <c r="A7" s="217" t="s">
+        <v>116</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
@@ -12669,177 +12446,177 @@
         <v>1234.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="210"/>
+    <row r="8" customHeight="1" ht="30">
+      <c r="A8" s="218"/>
       <c r="B8" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13">
         <v>1234</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="14"/>
+    <row r="10">
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11">
       <c r="A11" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" ht="27">
       <c r="A13" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" ht="27">
       <c r="A14" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F14" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    <row r="17">
       <c r="A17" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="30">
       <c r="A18" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="30">
       <c r="A19" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F19" s="16">
-        <v>0.79484953703703709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1">
+        <v>0.7948495370370371</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="30">
       <c r="A20" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F20" s="17">
-        <v>0.79484953703703709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.7948495370370371</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="B25" s="14"/>
     </row>
   </sheetData>
